--- a/Brackets/Rififi #34 bracket.xlsx
+++ b/Brackets/Rififi #34 bracket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugor\GitHub\MarioKartTopGenerator\Brackets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugor\Documents\GitHub\MarioKart\MarioKartTopGenerator\Brackets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4818C16-FC35-4706-991A-6FC8EEACEBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FA60FB-9E59-4CAE-A028-37CEA781E30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2F0D60C5-63AA-4767-A59B-0FBF4FA7B0CE}"/>
+    <workbookView xWindow="-28920" yWindow="5250" windowWidth="29040" windowHeight="16440" xr2:uid="{2F0D60C5-63AA-4767-A59B-0FBF4FA7B0CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Solo 16" sheetId="1" r:id="rId1"/>
@@ -1453,6 +1453,270 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1467,270 +1731,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2728,134 +2728,134 @@
   <dimension ref="A1:BE148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="60" zoomScaleNormal="31" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" style="66" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="116" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="113" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" style="113" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="113" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" style="113" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="113" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="113" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="113" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="113" customWidth="1"/>
-    <col min="12" max="12" width="10.6640625" style="113" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="113" customWidth="1"/>
-    <col min="14" max="14" width="36.33203125" style="113" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="29.88671875" style="113" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" style="113" customWidth="1"/>
-    <col min="17" max="18" width="30.6640625" style="113" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="113" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="113" customWidth="1"/>
-    <col min="21" max="22" width="4.6640625" style="113" customWidth="1"/>
-    <col min="23" max="24" width="30.6640625" style="113" customWidth="1"/>
-    <col min="25" max="25" width="4.6640625" style="113" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" style="113" customWidth="1"/>
-    <col min="27" max="28" width="4.6640625" style="113" customWidth="1"/>
-    <col min="29" max="30" width="30.6640625" style="113" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" style="113" customWidth="1"/>
-    <col min="32" max="32" width="10.6640625" style="113" customWidth="1"/>
-    <col min="33" max="34" width="4.6640625" style="113" customWidth="1"/>
-    <col min="35" max="36" width="30.6640625" style="113" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" style="113" customWidth="1"/>
-    <col min="38" max="38" width="10.6640625" style="113" customWidth="1"/>
-    <col min="39" max="40" width="4.6640625" style="113" customWidth="1"/>
-    <col min="41" max="42" width="30.6640625" style="113" customWidth="1"/>
-    <col min="43" max="43" width="4.6640625" style="113" customWidth="1"/>
-    <col min="44" max="44" width="10.6640625" style="113" customWidth="1"/>
-    <col min="45" max="45" width="13.33203125" style="113" customWidth="1"/>
-    <col min="46" max="47" width="4.6640625" style="113" customWidth="1"/>
-    <col min="48" max="49" width="30.6640625" style="113" customWidth="1"/>
-    <col min="50" max="50" width="10.6640625" style="113" customWidth="1"/>
-    <col min="51" max="51" width="4.6640625" style="113" customWidth="1"/>
-    <col min="52" max="52" width="13.33203125" style="113" customWidth="1"/>
-    <col min="53" max="53" width="5.6640625" style="113" customWidth="1"/>
-    <col min="54" max="56" width="13.33203125" style="113" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="5.6640625" style="113" hidden="1" customWidth="1"/>
-    <col min="58" max="16384" width="11.44140625" style="113" hidden="1"/>
+    <col min="1" max="1" width="31.42578125" style="66" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="159" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="160" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="160" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="160" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="160" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="160" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="160" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="160" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="160" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="160" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="160" customWidth="1"/>
+    <col min="14" max="14" width="36.28515625" style="160" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="29.85546875" style="160" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" style="160" customWidth="1"/>
+    <col min="17" max="18" width="30.7109375" style="160" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" style="160" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="160" customWidth="1"/>
+    <col min="21" max="22" width="4.7109375" style="160" customWidth="1"/>
+    <col min="23" max="24" width="30.7109375" style="160" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" style="160" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="160" customWidth="1"/>
+    <col min="27" max="28" width="4.7109375" style="160" customWidth="1"/>
+    <col min="29" max="30" width="30.7109375" style="160" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" style="160" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" style="160" customWidth="1"/>
+    <col min="33" max="34" width="4.7109375" style="160" customWidth="1"/>
+    <col min="35" max="36" width="30.7109375" style="160" customWidth="1"/>
+    <col min="37" max="37" width="4.7109375" style="160" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" style="160" customWidth="1"/>
+    <col min="39" max="40" width="4.7109375" style="160" customWidth="1"/>
+    <col min="41" max="42" width="30.7109375" style="160" customWidth="1"/>
+    <col min="43" max="43" width="4.7109375" style="160" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" style="160" customWidth="1"/>
+    <col min="45" max="45" width="13.28515625" style="160" customWidth="1"/>
+    <col min="46" max="47" width="4.7109375" style="160" customWidth="1"/>
+    <col min="48" max="49" width="30.7109375" style="160" customWidth="1"/>
+    <col min="50" max="50" width="10.7109375" style="160" customWidth="1"/>
+    <col min="51" max="51" width="4.7109375" style="160" customWidth="1"/>
+    <col min="52" max="52" width="13.28515625" style="160" customWidth="1"/>
+    <col min="53" max="53" width="5.7109375" style="160" customWidth="1"/>
+    <col min="54" max="56" width="13.28515625" style="160" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="5.7109375" style="160" hidden="1" customWidth="1"/>
+    <col min="58" max="16384" width="11.42578125" style="160" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="114" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:57" s="157" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="115"/>
-      <c r="AE1" s="115"/>
-      <c r="AF1" s="115"/>
-      <c r="AG1" s="115"/>
-      <c r="AH1" s="115"/>
-      <c r="AI1" s="115"/>
-      <c r="AJ1" s="115"/>
-      <c r="AK1" s="115"/>
-      <c r="AL1" s="115"/>
-      <c r="AM1" s="115"/>
-      <c r="AN1" s="115"/>
-      <c r="AO1" s="115"/>
-      <c r="AP1" s="115"/>
-      <c r="AQ1" s="115"/>
-      <c r="AR1" s="115"/>
-      <c r="AS1" s="115"/>
-      <c r="AT1" s="115"/>
-      <c r="AU1" s="115"/>
-      <c r="AV1" s="115"/>
-      <c r="AW1" s="115"/>
-      <c r="AX1" s="115"/>
-      <c r="AY1" s="115"/>
-      <c r="AZ1" s="115"/>
-      <c r="BA1" s="115"/>
-      <c r="BB1" s="115"/>
-      <c r="BC1" s="115"/>
-      <c r="BD1" s="115"/>
-      <c r="BE1" s="115"/>
-    </row>
-    <row r="2" spans="1:57" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="158"/>
+      <c r="L1" s="158"/>
+      <c r="M1" s="158"/>
+      <c r="N1" s="158"/>
+      <c r="O1" s="158"/>
+      <c r="P1" s="158"/>
+      <c r="Q1" s="158"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="158"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="158"/>
+      <c r="AH1" s="158"/>
+      <c r="AI1" s="158"/>
+      <c r="AJ1" s="158"/>
+      <c r="AK1" s="158"/>
+      <c r="AL1" s="158"/>
+      <c r="AM1" s="158"/>
+      <c r="AN1" s="158"/>
+      <c r="AO1" s="158"/>
+      <c r="AP1" s="158"/>
+      <c r="AQ1" s="158"/>
+      <c r="AR1" s="158"/>
+      <c r="AS1" s="158"/>
+      <c r="AT1" s="158"/>
+      <c r="AU1" s="158"/>
+      <c r="AV1" s="158"/>
+      <c r="AW1" s="158"/>
+      <c r="AX1" s="158"/>
+      <c r="AY1" s="158"/>
+      <c r="AZ1" s="158"/>
+      <c r="BA1" s="158"/>
+      <c r="BB1" s="158"/>
+      <c r="BC1" s="158"/>
+      <c r="BD1" s="158"/>
+      <c r="BE1" s="158"/>
+    </row>
+    <row r="2" spans="1:57" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="178" t="s">
+      <c r="B2" s="159"/>
+      <c r="C2" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="110"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="141"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
@@ -2887,7 +2887,7 @@
       <c r="AO2" s="28"/>
       <c r="AP2" s="28"/>
       <c r="AQ2" s="28"/>
-      <c r="AR2" s="110"/>
+      <c r="AR2" s="141"/>
       <c r="AS2" s="28"/>
       <c r="AT2" s="28"/>
       <c r="AU2" s="28"/>
@@ -2896,24 +2896,24 @@
       <c r="AX2" s="28"/>
       <c r="AY2" s="28"/>
       <c r="AZ2" s="29"/>
-      <c r="BA2" s="113"/>
+      <c r="BA2" s="160"/>
       <c r="BE2" s="84"/>
     </row>
-    <row r="3" spans="1:57" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:57" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="111"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="142"/>
       <c r="M3" s="85"/>
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
@@ -2945,7 +2945,7 @@
       <c r="AO3" s="76"/>
       <c r="AP3" s="76"/>
       <c r="AQ3" s="76"/>
-      <c r="AR3" s="111"/>
+      <c r="AR3" s="142"/>
       <c r="AS3" s="76"/>
       <c r="AT3" s="76"/>
       <c r="AU3" s="76"/>
@@ -2954,24 +2954,24 @@
       <c r="AX3" s="76"/>
       <c r="AY3" s="76"/>
       <c r="AZ3" s="30"/>
-      <c r="BA3" s="113"/>
+      <c r="BA3" s="160"/>
       <c r="BE3" s="84"/>
     </row>
-    <row r="4" spans="1:57" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="111"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="142"/>
       <c r="M4" s="76"/>
       <c r="N4" s="76"/>
       <c r="O4" s="76"/>
@@ -3003,7 +3003,7 @@
       <c r="AO4" s="76"/>
       <c r="AP4" s="76"/>
       <c r="AQ4" s="76"/>
-      <c r="AR4" s="111"/>
+      <c r="AR4" s="142"/>
       <c r="AS4" s="76"/>
       <c r="AT4" s="76"/>
       <c r="AU4" s="76"/>
@@ -3012,207 +3012,207 @@
       <c r="AX4" s="76"/>
       <c r="AY4" s="76"/>
       <c r="AZ4" s="30"/>
-      <c r="BA4" s="113"/>
+      <c r="BA4" s="160"/>
       <c r="BE4" s="84"/>
     </row>
-    <row r="5" spans="1:57" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:57" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="126" t="s">
+      <c r="B5" s="159"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="128"/>
-      <c r="AR5" s="111"/>
-      <c r="AS5" s="138" t="s">
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
+      <c r="U5" s="171"/>
+      <c r="V5" s="171"/>
+      <c r="W5" s="171"/>
+      <c r="X5" s="171"/>
+      <c r="Y5" s="171"/>
+      <c r="Z5" s="171"/>
+      <c r="AA5" s="171"/>
+      <c r="AB5" s="171"/>
+      <c r="AC5" s="171"/>
+      <c r="AD5" s="171"/>
+      <c r="AE5" s="171"/>
+      <c r="AF5" s="171"/>
+      <c r="AG5" s="171"/>
+      <c r="AH5" s="171"/>
+      <c r="AI5" s="171"/>
+      <c r="AJ5" s="171"/>
+      <c r="AK5" s="171"/>
+      <c r="AL5" s="171"/>
+      <c r="AM5" s="171"/>
+      <c r="AN5" s="171"/>
+      <c r="AO5" s="171"/>
+      <c r="AP5" s="171"/>
+      <c r="AQ5" s="172"/>
+      <c r="AR5" s="142"/>
+      <c r="AS5" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="AT5" s="139"/>
-      <c r="AU5" s="139"/>
-      <c r="AV5" s="139"/>
-      <c r="AW5" s="139"/>
-      <c r="AX5" s="139"/>
-      <c r="AY5" s="139"/>
-      <c r="AZ5" s="140"/>
-      <c r="BA5" s="113"/>
+      <c r="AT5" s="183"/>
+      <c r="AU5" s="183"/>
+      <c r="AV5" s="183"/>
+      <c r="AW5" s="183"/>
+      <c r="AX5" s="183"/>
+      <c r="AY5" s="183"/>
+      <c r="AZ5" s="184"/>
+      <c r="BA5" s="160"/>
       <c r="BE5" s="84"/>
     </row>
-    <row r="6" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="116"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="130"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130"/>
-      <c r="AF6" s="130"/>
-      <c r="AG6" s="130"/>
-      <c r="AH6" s="130"/>
-      <c r="AI6" s="130"/>
-      <c r="AJ6" s="130"/>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="130"/>
-      <c r="AP6" s="130"/>
-      <c r="AQ6" s="131"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="141"/>
-      <c r="AT6" s="142"/>
-      <c r="AU6" s="142"/>
-      <c r="AV6" s="142"/>
-      <c r="AW6" s="142"/>
-      <c r="AX6" s="142"/>
-      <c r="AY6" s="142"/>
-      <c r="AZ6" s="143"/>
-      <c r="BA6" s="113"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="173"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="174"/>
+      <c r="P6" s="174"/>
+      <c r="Q6" s="174"/>
+      <c r="R6" s="174"/>
+      <c r="S6" s="174"/>
+      <c r="T6" s="174"/>
+      <c r="U6" s="174"/>
+      <c r="V6" s="174"/>
+      <c r="W6" s="174"/>
+      <c r="X6" s="174"/>
+      <c r="Y6" s="174"/>
+      <c r="Z6" s="174"/>
+      <c r="AA6" s="174"/>
+      <c r="AB6" s="174"/>
+      <c r="AC6" s="174"/>
+      <c r="AD6" s="174"/>
+      <c r="AE6" s="174"/>
+      <c r="AF6" s="174"/>
+      <c r="AG6" s="174"/>
+      <c r="AH6" s="174"/>
+      <c r="AI6" s="174"/>
+      <c r="AJ6" s="174"/>
+      <c r="AK6" s="174"/>
+      <c r="AL6" s="174"/>
+      <c r="AM6" s="174"/>
+      <c r="AN6" s="174"/>
+      <c r="AO6" s="174"/>
+      <c r="AP6" s="174"/>
+      <c r="AQ6" s="175"/>
+      <c r="AR6" s="142"/>
+      <c r="AS6" s="185"/>
+      <c r="AT6" s="186"/>
+      <c r="AU6" s="186"/>
+      <c r="AV6" s="186"/>
+      <c r="AW6" s="186"/>
+      <c r="AX6" s="186"/>
+      <c r="AY6" s="186"/>
+      <c r="AZ6" s="187"/>
+      <c r="BA6" s="160"/>
       <c r="BE6" s="84"/>
     </row>
-    <row r="7" spans="1:57" s="66" customFormat="1" ht="39.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:57" s="66" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="116"/>
+      <c r="B7" s="159"/>
       <c r="C7" s="103"/>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="106" t="str">
+      <c r="E7" s="193"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="193"/>
+      <c r="H7" s="193"/>
+      <c r="I7" s="194" t="str">
         <f>"11/02/2025"</f>
         <v>11/02/2025</v>
       </c>
-      <c r="J7" s="107"/>
+      <c r="J7" s="195"/>
       <c r="K7" s="104"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="133"/>
-      <c r="V7" s="133"/>
-      <c r="W7" s="133"/>
-      <c r="X7" s="133"/>
-      <c r="Y7" s="133"/>
-      <c r="Z7" s="133"/>
-      <c r="AA7" s="133"/>
-      <c r="AB7" s="133"/>
-      <c r="AC7" s="133"/>
-      <c r="AD7" s="133"/>
-      <c r="AE7" s="133"/>
-      <c r="AF7" s="133"/>
-      <c r="AG7" s="133"/>
-      <c r="AH7" s="133"/>
-      <c r="AI7" s="133"/>
-      <c r="AJ7" s="133"/>
-      <c r="AK7" s="133"/>
-      <c r="AL7" s="133"/>
-      <c r="AM7" s="133"/>
-      <c r="AN7" s="133"/>
-      <c r="AO7" s="133"/>
-      <c r="AP7" s="133"/>
-      <c r="AQ7" s="134"/>
-      <c r="AR7" s="111"/>
-      <c r="AS7" s="144"/>
-      <c r="AT7" s="145"/>
-      <c r="AU7" s="145"/>
-      <c r="AV7" s="145"/>
-      <c r="AW7" s="145"/>
-      <c r="AX7" s="145"/>
-      <c r="AY7" s="145"/>
-      <c r="AZ7" s="146"/>
-      <c r="BA7" s="113"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="176"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177"/>
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177"/>
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177"/>
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="177"/>
+      <c r="AQ7" s="178"/>
+      <c r="AR7" s="142"/>
+      <c r="AS7" s="188"/>
+      <c r="AT7" s="189"/>
+      <c r="AU7" s="189"/>
+      <c r="AV7" s="189"/>
+      <c r="AW7" s="189"/>
+      <c r="AX7" s="189"/>
+      <c r="AY7" s="189"/>
+      <c r="AZ7" s="190"/>
+      <c r="BA7" s="160"/>
       <c r="BE7" s="84"/>
     </row>
-    <row r="8" spans="1:57" s="66" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:57" s="66" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="111"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="142"/>
       <c r="M8" s="76"/>
       <c r="N8" s="76"/>
       <c r="O8" s="76"/>
@@ -3242,7 +3242,7 @@
       <c r="AO8" s="76"/>
       <c r="AP8" s="76"/>
       <c r="AQ8" s="76"/>
-      <c r="AR8" s="111"/>
+      <c r="AR8" s="142"/>
       <c r="AS8" s="76"/>
       <c r="AT8" s="76"/>
       <c r="AU8" s="76"/>
@@ -3251,24 +3251,24 @@
       <c r="AX8" s="76"/>
       <c r="AY8" s="76"/>
       <c r="AZ8" s="30"/>
-      <c r="BA8" s="113"/>
+      <c r="BA8" s="160"/>
       <c r="BE8" s="84"/>
     </row>
-    <row r="9" spans="1:57" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:57" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="116"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="80"/>
       <c r="G9" s="79"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
       <c r="K9" s="76"/>
-      <c r="L9" s="111"/>
+      <c r="L9" s="142"/>
       <c r="M9" s="76"/>
       <c r="N9" s="76"/>
       <c r="O9" s="76"/>
@@ -3300,7 +3300,7 @@
       <c r="AO9" s="76"/>
       <c r="AP9" s="76"/>
       <c r="AQ9" s="76"/>
-      <c r="AR9" s="111"/>
+      <c r="AR9" s="142"/>
       <c r="AS9" s="76"/>
       <c r="AT9" s="76"/>
       <c r="AU9" s="76"/>
@@ -3309,14 +3309,14 @@
       <c r="AX9" s="76"/>
       <c r="AY9" s="76"/>
       <c r="AZ9" s="30"/>
-      <c r="BA9" s="113"/>
+      <c r="BA9" s="160"/>
       <c r="BE9" s="84"/>
     </row>
-    <row r="10" spans="1:57" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:57" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="116"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="31"/>
       <c r="D10" s="76"/>
       <c r="E10" s="79"/>
@@ -3326,7 +3326,7 @@
       <c r="I10" s="76"/>
       <c r="J10" s="76"/>
       <c r="K10" s="76"/>
-      <c r="L10" s="111"/>
+      <c r="L10" s="142"/>
       <c r="M10" s="76"/>
       <c r="N10" s="76"/>
       <c r="O10" s="76"/>
@@ -3358,7 +3358,7 @@
       <c r="AO10" s="76"/>
       <c r="AP10" s="76"/>
       <c r="AQ10" s="76"/>
-      <c r="AR10" s="111"/>
+      <c r="AR10" s="142"/>
       <c r="AS10" s="76"/>
       <c r="AT10" s="76"/>
       <c r="AU10" s="76"/>
@@ -3367,14 +3367,14 @@
       <c r="AX10" s="76"/>
       <c r="AY10" s="76"/>
       <c r="AZ10" s="30"/>
-      <c r="BA10" s="113"/>
+      <c r="BA10" s="160"/>
       <c r="BE10" s="84"/>
     </row>
-    <row r="11" spans="1:57" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:57" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="116"/>
+      <c r="B11" s="159"/>
       <c r="C11" s="31"/>
       <c r="D11" s="76"/>
       <c r="E11" s="79"/>
@@ -3384,65 +3384,65 @@
       <c r="I11" s="76"/>
       <c r="J11" s="76"/>
       <c r="K11" s="76"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="150" t="s">
+      <c r="L11" s="142"/>
+      <c r="M11" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="150"/>
-      <c r="R11" s="150"/>
-      <c r="S11" s="151"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="111"/>
       <c r="T11" s="76"/>
-      <c r="U11" s="149" t="s">
+      <c r="U11" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="150"/>
-      <c r="W11" s="150"/>
-      <c r="X11" s="150"/>
-      <c r="Y11" s="151"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="111"/>
       <c r="Z11" s="76"/>
-      <c r="AA11" s="149" t="s">
+      <c r="AA11" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AB11" s="150"/>
-      <c r="AC11" s="150"/>
-      <c r="AD11" s="150"/>
-      <c r="AE11" s="151"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="111"/>
       <c r="AF11" s="76"/>
-      <c r="AG11" s="149" t="s">
+      <c r="AG11" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="AH11" s="150"/>
-      <c r="AI11" s="150"/>
-      <c r="AJ11" s="150"/>
-      <c r="AK11" s="151"/>
+      <c r="AH11" s="110"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="111"/>
       <c r="AL11" s="76"/>
       <c r="AM11" s="76"/>
       <c r="AN11" s="76"/>
       <c r="AO11" s="76"/>
       <c r="AP11" s="76"/>
       <c r="AQ11" s="76"/>
-      <c r="AR11" s="111"/>
+      <c r="AR11" s="142"/>
       <c r="AS11" s="76"/>
-      <c r="AT11" s="149" t="s">
+      <c r="AT11" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AU11" s="150"/>
-      <c r="AV11" s="150"/>
-      <c r="AW11" s="150"/>
-      <c r="AX11" s="150"/>
-      <c r="AY11" s="151"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="111"/>
       <c r="AZ11" s="30"/>
-      <c r="BA11" s="113"/>
+      <c r="BA11" s="160"/>
       <c r="BE11" s="84"/>
     </row>
-    <row r="12" spans="1:57" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:57" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="116"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="31"/>
       <c r="D12" s="76"/>
       <c r="E12" s="79"/>
@@ -3452,159 +3452,159 @@
       <c r="I12" s="76"/>
       <c r="J12" s="76"/>
       <c r="K12" s="76"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="154"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="114"/>
       <c r="T12" s="76"/>
-      <c r="U12" s="152"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="154"/>
+      <c r="U12" s="112"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="114"/>
       <c r="Z12" s="76"/>
-      <c r="AA12" s="152"/>
-      <c r="AB12" s="153"/>
-      <c r="AC12" s="153"/>
-      <c r="AD12" s="153"/>
-      <c r="AE12" s="154"/>
+      <c r="AA12" s="112"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="114"/>
       <c r="AF12" s="76"/>
-      <c r="AG12" s="152"/>
-      <c r="AH12" s="153"/>
-      <c r="AI12" s="153"/>
-      <c r="AJ12" s="153"/>
-      <c r="AK12" s="154"/>
+      <c r="AG12" s="112"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="114"/>
       <c r="AL12" s="76"/>
       <c r="AM12" s="76"/>
       <c r="AN12" s="76"/>
       <c r="AO12" s="76"/>
       <c r="AP12" s="76"/>
       <c r="AQ12" s="76"/>
-      <c r="AR12" s="111"/>
+      <c r="AR12" s="142"/>
       <c r="AS12" s="76"/>
-      <c r="AT12" s="152"/>
-      <c r="AU12" s="153"/>
-      <c r="AV12" s="153"/>
-      <c r="AW12" s="153"/>
-      <c r="AX12" s="153"/>
-      <c r="AY12" s="154"/>
+      <c r="AT12" s="112"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
+      <c r="AY12" s="114"/>
       <c r="AZ12" s="30"/>
-      <c r="BA12" s="113"/>
+      <c r="BA12" s="160"/>
       <c r="BE12" s="84"/>
     </row>
-    <row r="13" spans="1:57" s="66" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:57" s="66" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="116"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="184" t="s">
+      <c r="D13" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="186"/>
+      <c r="E13" s="132"/>
       <c r="F13" s="80"/>
       <c r="G13" s="79"/>
-      <c r="H13" s="184" t="s">
+      <c r="H13" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="185"/>
-      <c r="J13" s="186"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="132"/>
       <c r="K13" s="76"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="157"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="116"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="117"/>
       <c r="T13" s="76"/>
-      <c r="U13" s="155"/>
-      <c r="V13" s="156"/>
-      <c r="W13" s="156"/>
-      <c r="X13" s="156"/>
-      <c r="Y13" s="157"/>
+      <c r="U13" s="115"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="117"/>
       <c r="Z13" s="76"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="156"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
-      <c r="AE13" s="157"/>
+      <c r="AA13" s="115"/>
+      <c r="AB13" s="116"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="117"/>
       <c r="AF13" s="76"/>
-      <c r="AG13" s="155"/>
-      <c r="AH13" s="156"/>
-      <c r="AI13" s="156"/>
-      <c r="AJ13" s="156"/>
-      <c r="AK13" s="157"/>
+      <c r="AG13" s="115"/>
+      <c r="AH13" s="116"/>
+      <c r="AI13" s="116"/>
+      <c r="AJ13" s="116"/>
+      <c r="AK13" s="117"/>
       <c r="AL13" s="76"/>
       <c r="AM13" s="76"/>
       <c r="AN13" s="76"/>
       <c r="AO13" s="76"/>
       <c r="AP13" s="76"/>
       <c r="AQ13" s="76"/>
-      <c r="AR13" s="111"/>
+      <c r="AR13" s="142"/>
       <c r="AS13" s="76"/>
-      <c r="AT13" s="155"/>
-      <c r="AU13" s="156"/>
-      <c r="AV13" s="156"/>
-      <c r="AW13" s="156"/>
-      <c r="AX13" s="156"/>
-      <c r="AY13" s="157"/>
+      <c r="AT13" s="115"/>
+      <c r="AU13" s="116"/>
+      <c r="AV13" s="116"/>
+      <c r="AW13" s="116"/>
+      <c r="AX13" s="116"/>
+      <c r="AY13" s="117"/>
       <c r="AZ13" s="30"/>
-      <c r="BA13" s="113"/>
+      <c r="BA13" s="160"/>
       <c r="BE13" s="84"/>
     </row>
-    <row r="14" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="116"/>
+      <c r="B14" s="159"/>
       <c r="C14" s="31"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="190"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="136"/>
       <c r="F14" s="80"/>
       <c r="G14" s="79"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="189"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="135"/>
       <c r="K14" s="76"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="164"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="120"/>
       <c r="T14" s="76"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="164"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="120"/>
       <c r="Z14" s="76"/>
-      <c r="AA14" s="147"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="164"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="120"/>
       <c r="AF14" s="76"/>
-      <c r="AG14" s="147"/>
-      <c r="AH14" s="148"/>
-      <c r="AI14" s="148"/>
-      <c r="AJ14" s="148"/>
-      <c r="AK14" s="164"/>
+      <c r="AG14" s="118"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="120"/>
       <c r="AL14" s="76"/>
       <c r="AM14" s="76"/>
       <c r="AN14" s="76"/>
       <c r="AO14" s="76"/>
       <c r="AP14" s="76"/>
       <c r="AQ14" s="76"/>
-      <c r="AR14" s="111"/>
+      <c r="AR14" s="142"/>
       <c r="AS14" s="76"/>
       <c r="AT14" s="97"/>
       <c r="AU14" s="98"/>
@@ -3613,14 +3613,14 @@
       <c r="AX14" s="98"/>
       <c r="AY14" s="99"/>
       <c r="AZ14" s="30"/>
-      <c r="BA14" s="113"/>
+      <c r="BA14" s="160"/>
       <c r="BE14" s="84"/>
     </row>
-    <row r="15" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="116"/>
+      <c r="B15" s="159"/>
       <c r="C15" s="31"/>
       <c r="D15" s="49" t="s">
         <v>24</v>
@@ -3641,55 +3641,55 @@
         <v>25</v>
       </c>
       <c r="K15" s="76"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="192"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="138"/>
       <c r="N15" s="86"/>
       <c r="O15" s="86"/>
       <c r="P15" s="13">
         <v>4</v>
       </c>
-      <c r="Q15" s="196" t="s">
+      <c r="Q15" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="R15" s="197"/>
-      <c r="S15" s="162"/>
+      <c r="R15" s="146"/>
+      <c r="S15" s="121"/>
       <c r="T15" s="76"/>
-      <c r="U15" s="162"/>
+      <c r="U15" s="121"/>
       <c r="V15" s="55">
         <v>4</v>
       </c>
-      <c r="W15" s="158" t="s">
+      <c r="W15" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="X15" s="158"/>
-      <c r="Y15" s="162"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="121"/>
       <c r="Z15" s="76"/>
-      <c r="AA15" s="162"/>
+      <c r="AA15" s="121"/>
       <c r="AB15" s="55">
         <v>4</v>
       </c>
-      <c r="AC15" s="158" t="s">
+      <c r="AC15" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="AD15" s="158"/>
-      <c r="AE15" s="162"/>
+      <c r="AD15" s="147"/>
+      <c r="AE15" s="121"/>
       <c r="AF15" s="76"/>
-      <c r="AG15" s="162"/>
+      <c r="AG15" s="121"/>
       <c r="AH15" s="2">
         <v>6</v>
       </c>
-      <c r="AI15" s="158" t="s">
+      <c r="AI15" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="AJ15" s="159"/>
-      <c r="AK15" s="162"/>
+      <c r="AJ15" s="148"/>
+      <c r="AK15" s="121"/>
       <c r="AL15" s="76"/>
       <c r="AM15" s="76"/>
       <c r="AN15" s="76"/>
       <c r="AO15" s="76"/>
       <c r="AP15" s="76"/>
       <c r="AQ15" s="76"/>
-      <c r="AR15" s="111"/>
+      <c r="AR15" s="142"/>
       <c r="AS15" s="76"/>
       <c r="AT15" s="94"/>
       <c r="AU15" s="2">
@@ -3702,14 +3702,14 @@
       <c r="AX15" s="60"/>
       <c r="AY15" s="94"/>
       <c r="AZ15" s="30"/>
-      <c r="BA15" s="113"/>
+      <c r="BA15" s="160"/>
       <c r="BE15" s="84"/>
     </row>
-    <row r="16" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="31"/>
       <c r="D16" s="50" t="s">
         <v>28</v>
@@ -3730,8 +3730,8 @@
         <v>29</v>
       </c>
       <c r="K16" s="76"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="193"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="139"/>
       <c r="N16" s="86"/>
       <c r="O16" s="86">
         <f>ROW()</f>
@@ -3746,9 +3746,9 @@
       <c r="R16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S16" s="163"/>
+      <c r="S16" s="122"/>
       <c r="T16" s="76"/>
-      <c r="U16" s="163"/>
+      <c r="U16" s="122"/>
       <c r="V16" s="56" t="s">
         <v>30</v>
       </c>
@@ -3758,9 +3758,9 @@
       <c r="X16" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="Y16" s="163"/>
+      <c r="Y16" s="122"/>
       <c r="Z16" s="76"/>
-      <c r="AA16" s="163"/>
+      <c r="AA16" s="122"/>
       <c r="AB16" s="56" t="s">
         <v>30</v>
       </c>
@@ -3770,9 +3770,9 @@
       <c r="AD16" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="AE16" s="163"/>
+      <c r="AE16" s="122"/>
       <c r="AF16" s="76"/>
-      <c r="AG16" s="163"/>
+      <c r="AG16" s="122"/>
       <c r="AH16" s="1" t="s">
         <v>30</v>
       </c>
@@ -3782,14 +3782,14 @@
       <c r="AJ16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AK16" s="163"/>
+      <c r="AK16" s="122"/>
       <c r="AL16" s="76"/>
       <c r="AM16" s="76"/>
       <c r="AN16" s="76"/>
       <c r="AO16" s="76"/>
       <c r="AP16" s="76"/>
       <c r="AQ16" s="76"/>
-      <c r="AR16" s="111"/>
+      <c r="AR16" s="142"/>
       <c r="AS16" s="76"/>
       <c r="AT16" s="95"/>
       <c r="AU16" s="1" t="s">
@@ -3806,14 +3806,14 @@
       </c>
       <c r="AY16" s="95"/>
       <c r="AZ16" s="30"/>
-      <c r="BA16" s="113"/>
+      <c r="BA16" s="160"/>
       <c r="BE16" s="84"/>
     </row>
-    <row r="17" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="159"/>
       <c r="C17" s="31"/>
       <c r="D17" s="50" t="s">
         <v>35</v>
@@ -3834,8 +3834,8 @@
         <v>37</v>
       </c>
       <c r="K17" s="76"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="193"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="139"/>
       <c r="N17" s="86" t="str">
         <f t="shared" ref="N17:N48" si="0">IF(E15=2,D15 &amp; "  [DQ]",D15)</f>
         <v>Staany</v>
@@ -3844,7 +3844,7 @@
         <f t="shared" ref="O17:O48" si="1">IF(E15&gt;=1,ROW()-$O$16,"")</f>
         <v>1</v>
       </c>
-      <c r="P17" s="165" t="s">
+      <c r="P17" s="105" t="s">
         <v>38</v>
       </c>
       <c r="Q17" s="7" t="str" cm="1">
@@ -3854,10 +3854,10 @@
       <c r="R17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="163"/>
+      <c r="S17" s="122"/>
       <c r="T17" s="76"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="168" t="s">
+      <c r="U17" s="122"/>
+      <c r="V17" s="108" t="s">
         <v>40</v>
       </c>
       <c r="W17" s="7" t="str">
@@ -3867,10 +3867,10 @@
       <c r="X17" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="Y17" s="163"/>
+      <c r="Y17" s="122"/>
       <c r="Z17" s="76"/>
-      <c r="AA17" s="163"/>
-      <c r="AB17" s="168" t="s">
+      <c r="AA17" s="122"/>
+      <c r="AB17" s="108" t="s">
         <v>42</v>
       </c>
       <c r="AC17" s="7" t="str">
@@ -3880,10 +3880,10 @@
       <c r="AD17" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="AE17" s="163"/>
+      <c r="AE17" s="122"/>
       <c r="AF17" s="76"/>
-      <c r="AG17" s="163"/>
-      <c r="AH17" s="165" t="s">
+      <c r="AG17" s="122"/>
+      <c r="AH17" s="105" t="s">
         <v>43</v>
       </c>
       <c r="AI17" s="7" t="str">
@@ -3893,17 +3893,17 @@
       <c r="AJ17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AK17" s="163"/>
+      <c r="AK17" s="122"/>
       <c r="AL17" s="76"/>
       <c r="AM17" s="76"/>
       <c r="AN17" s="76"/>
       <c r="AO17" s="76"/>
       <c r="AP17" s="76"/>
       <c r="AQ17" s="76"/>
-      <c r="AR17" s="111"/>
+      <c r="AR17" s="142"/>
       <c r="AS17" s="76"/>
       <c r="AT17" s="95"/>
-      <c r="AU17" s="135" t="s">
+      <c r="AU17" s="179" t="s">
         <v>44</v>
       </c>
       <c r="AV17" s="14" t="str">
@@ -3918,14 +3918,14 @@
       </c>
       <c r="AY17" s="100"/>
       <c r="AZ17" s="30"/>
-      <c r="BA17" s="113"/>
+      <c r="BA17" s="160"/>
       <c r="BE17" s="84"/>
     </row>
-    <row r="18" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="116"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="32"/>
       <c r="D18" s="50" t="s">
         <v>46</v>
@@ -3946,8 +3946,8 @@
         <v>48</v>
       </c>
       <c r="K18" s="76"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="193"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="139"/>
       <c r="N18" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Batefimbi</v>
@@ -3956,7 +3956,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P18" s="166"/>
+      <c r="P18" s="106"/>
       <c r="Q18" s="8" t="str" cm="1">
         <f t="array" ref="Q18">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B9))),"-")</f>
         <v>Antho</v>
@@ -3964,10 +3964,10 @@
       <c r="R18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S18" s="163"/>
+      <c r="S18" s="122"/>
       <c r="T18" s="76"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="169"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="149"/>
       <c r="W18" s="8" t="str">
         <f>IF(ISBLANK($R$33),"E1",$R$33)</f>
         <v>Rouxblart</v>
@@ -3975,10 +3975,10 @@
       <c r="X18" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="Y18" s="163"/>
+      <c r="Y18" s="122"/>
       <c r="Z18" s="76"/>
-      <c r="AA18" s="163"/>
-      <c r="AB18" s="169"/>
+      <c r="AA18" s="122"/>
+      <c r="AB18" s="149"/>
       <c r="AC18" s="8" t="str">
         <f>IF(ISBLANK($X$25),"K1",$X$25)</f>
         <v>GoGu</v>
@@ -3986,10 +3986,10 @@
       <c r="AD18" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="AE18" s="163"/>
+      <c r="AE18" s="122"/>
       <c r="AF18" s="76"/>
-      <c r="AG18" s="163"/>
-      <c r="AH18" s="166"/>
+      <c r="AG18" s="122"/>
+      <c r="AH18" s="106"/>
       <c r="AI18" s="8" t="str">
         <f>IF(ISBLANK($AD$21),"N1",$AD$21)</f>
         <v>Staany</v>
@@ -3997,17 +3997,17 @@
       <c r="AJ18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AK18" s="163"/>
+      <c r="AK18" s="122"/>
       <c r="AL18" s="76"/>
       <c r="AM18" s="76"/>
       <c r="AN18" s="76"/>
       <c r="AO18" s="76"/>
       <c r="AP18" s="76"/>
       <c r="AQ18" s="76"/>
-      <c r="AR18" s="111"/>
+      <c r="AR18" s="142"/>
       <c r="AS18" s="76"/>
       <c r="AT18" s="95"/>
-      <c r="AU18" s="136"/>
+      <c r="AU18" s="180"/>
       <c r="AV18" s="15" t="str">
         <f>IF(ISBLANK($AJ$18),"WF2",$AJ$18)</f>
         <v>Batefimbi</v>
@@ -4020,14 +4020,14 @@
       </c>
       <c r="AY18" s="100"/>
       <c r="AZ18" s="30"/>
-      <c r="BA18" s="113"/>
+      <c r="BA18" s="160"/>
       <c r="BE18" s="84"/>
     </row>
-    <row r="19" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="116"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="32"/>
       <c r="D19" s="50" t="s">
         <v>41</v>
@@ -4048,8 +4048,8 @@
         <v>51</v>
       </c>
       <c r="K19" s="76"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="193"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="139"/>
       <c r="N19" s="86" t="str">
         <f t="shared" si="0"/>
         <v>GoGu</v>
@@ -4058,7 +4058,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="P19" s="166"/>
+      <c r="P19" s="106"/>
       <c r="Q19" s="8" t="str" cm="1">
         <f t="array" ref="Q19">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B17))),"-")</f>
         <v>Joey</v>
@@ -4066,10 +4066,10 @@
       <c r="R19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="163"/>
+      <c r="S19" s="122"/>
       <c r="T19" s="76"/>
-      <c r="U19" s="163"/>
-      <c r="V19" s="169"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="149"/>
       <c r="W19" s="8" t="str">
         <f>IF(ISBLANK($R$22),"B2",$R$22)</f>
         <v>Yuyu</v>
@@ -4077,10 +4077,10 @@
       <c r="X19" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="Y19" s="163"/>
+      <c r="Y19" s="122"/>
       <c r="Z19" s="76"/>
-      <c r="AA19" s="163"/>
-      <c r="AB19" s="169"/>
+      <c r="AA19" s="122"/>
+      <c r="AB19" s="149"/>
       <c r="AC19" s="8" t="str">
         <f>IF(ISBLANK($X$22),"J2",$X$22)</f>
         <v>Voltar</v>
@@ -4088,10 +4088,10 @@
       <c r="AD19" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="AE19" s="163"/>
+      <c r="AE19" s="122"/>
       <c r="AF19" s="76"/>
-      <c r="AG19" s="163"/>
-      <c r="AH19" s="166"/>
+      <c r="AG19" s="122"/>
+      <c r="AH19" s="106"/>
       <c r="AI19" s="8" t="str">
         <f>IF(ISBLANK($AD$18),"M2",$AD$18)</f>
         <v>Ranto</v>
@@ -4099,17 +4099,17 @@
       <c r="AJ19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AK19" s="163"/>
+      <c r="AK19" s="122"/>
       <c r="AL19" s="76"/>
       <c r="AM19" s="76"/>
       <c r="AN19" s="76"/>
       <c r="AO19" s="76"/>
       <c r="AP19" s="76"/>
       <c r="AQ19" s="76"/>
-      <c r="AR19" s="111"/>
+      <c r="AR19" s="142"/>
       <c r="AS19" s="76"/>
       <c r="AT19" s="95"/>
-      <c r="AU19" s="136"/>
+      <c r="AU19" s="180"/>
       <c r="AV19" s="15" t="str">
         <f>IF(ISBLANK($AP$63),"LF1",$AP$63)</f>
         <v>Kassys</v>
@@ -4122,14 +4122,14 @@
       </c>
       <c r="AY19" s="100"/>
       <c r="AZ19" s="30"/>
-      <c r="BA19" s="113"/>
+      <c r="BA19" s="160"/>
       <c r="BE19" s="84"/>
     </row>
-    <row r="20" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="116"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="32"/>
       <c r="D20" s="50" t="s">
         <v>54</v>
@@ -4140,7 +4140,7 @@
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
       <c r="H20" s="47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I20" s="20" t="str">
         <f>IF(ISBLANK(AW32),"TBD",AW32)</f>
@@ -4150,8 +4150,8 @@
         <v>56</v>
       </c>
       <c r="K20" s="76"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="193"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="139"/>
       <c r="N20" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Ranto</v>
@@ -4160,7 +4160,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="P20" s="171"/>
+      <c r="P20" s="107"/>
       <c r="Q20" s="9" t="str" cm="1">
         <f t="array" ref="Q20">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B25))),"-")</f>
         <v>Groluche le louche</v>
@@ -4168,10 +4168,10 @@
       <c r="R20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="S20" s="163"/>
+      <c r="S20" s="122"/>
       <c r="T20" s="76"/>
-      <c r="U20" s="163"/>
-      <c r="V20" s="170"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="150"/>
       <c r="W20" s="9" t="str">
         <f>IF(ISBLANK($R$38),"F2",$R$38)</f>
         <v>Kassys</v>
@@ -4179,10 +4179,10 @@
       <c r="X20" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="Y20" s="163"/>
+      <c r="Y20" s="122"/>
       <c r="Z20" s="76"/>
-      <c r="AA20" s="163"/>
-      <c r="AB20" s="170"/>
+      <c r="AA20" s="122"/>
+      <c r="AB20" s="150"/>
       <c r="AC20" s="9" t="str">
         <f>IF(ISBLANK($X$30),"L2",$X$30)</f>
         <v>Ranto</v>
@@ -4190,10 +4190,10 @@
       <c r="AD20" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AE20" s="163"/>
+      <c r="AE20" s="122"/>
       <c r="AF20" s="76"/>
-      <c r="AG20" s="167"/>
-      <c r="AH20" s="171"/>
+      <c r="AG20" s="123"/>
+      <c r="AH20" s="107"/>
       <c r="AI20" s="9" t="str">
         <f>IF(ISBLANK($AD$22),"N2",$AD$22)</f>
         <v>Batefimbi</v>
@@ -4201,17 +4201,17 @@
       <c r="AJ20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK20" s="167"/>
+      <c r="AK20" s="123"/>
       <c r="AL20" s="76"/>
       <c r="AM20" s="76"/>
       <c r="AN20" s="76"/>
       <c r="AO20" s="76"/>
       <c r="AP20" s="76"/>
       <c r="AQ20" s="76"/>
-      <c r="AR20" s="111"/>
+      <c r="AR20" s="142"/>
       <c r="AS20" s="76"/>
       <c r="AT20" s="96"/>
-      <c r="AU20" s="137"/>
+      <c r="AU20" s="181"/>
       <c r="AV20" s="16" t="str">
         <f>IF(ISBLANK($AP$64),"LF2",$AP$64)</f>
         <v>GoGu</v>
@@ -4224,14 +4224,14 @@
       </c>
       <c r="AY20" s="101"/>
       <c r="AZ20" s="30"/>
-      <c r="BA20" s="113"/>
+      <c r="BA20" s="160"/>
       <c r="BE20" s="84"/>
     </row>
-    <row r="21" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="116"/>
+      <c r="B21" s="159"/>
       <c r="C21" s="32"/>
       <c r="D21" s="50" t="s">
         <v>58</v>
@@ -4252,8 +4252,8 @@
         <v>61</v>
       </c>
       <c r="K21" s="76"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="193"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="139"/>
       <c r="N21" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Rouxblart</v>
@@ -4262,7 +4262,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="P21" s="165" t="s">
+      <c r="P21" s="105" t="s">
         <v>62</v>
       </c>
       <c r="Q21" s="7" t="str" cm="1">
@@ -4272,10 +4272,10 @@
       <c r="R21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="S21" s="163"/>
+      <c r="S21" s="122"/>
       <c r="T21" s="76"/>
-      <c r="U21" s="163"/>
-      <c r="V21" s="168" t="s">
+      <c r="U21" s="122"/>
+      <c r="V21" s="108" t="s">
         <v>63</v>
       </c>
       <c r="W21" s="8" t="str">
@@ -4285,10 +4285,10 @@
       <c r="X21" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Y21" s="163"/>
+      <c r="Y21" s="122"/>
       <c r="Z21" s="76"/>
-      <c r="AA21" s="163"/>
-      <c r="AB21" s="168" t="s">
+      <c r="AA21" s="122"/>
+      <c r="AB21" s="108" t="s">
         <v>64</v>
       </c>
       <c r="AC21" s="8" t="str">
@@ -4298,20 +4298,20 @@
       <c r="AD21" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="AE21" s="163"/>
+      <c r="AE21" s="122"/>
       <c r="AF21" s="76"/>
-      <c r="AG21" s="147"/>
-      <c r="AH21" s="148"/>
-      <c r="AI21" s="148"/>
-      <c r="AJ21" s="148"/>
-      <c r="AK21" s="164"/>
+      <c r="AG21" s="118"/>
+      <c r="AH21" s="119"/>
+      <c r="AI21" s="119"/>
+      <c r="AJ21" s="119"/>
+      <c r="AK21" s="120"/>
       <c r="AL21" s="76"/>
       <c r="AM21" s="76"/>
       <c r="AN21" s="76"/>
       <c r="AO21" s="76"/>
       <c r="AP21" s="76"/>
       <c r="AQ21" s="76"/>
-      <c r="AR21" s="111"/>
+      <c r="AR21" s="142"/>
       <c r="AS21" s="76"/>
       <c r="AT21" s="97"/>
       <c r="AU21" s="98"/>
@@ -4320,14 +4320,14 @@
       <c r="AX21" s="102"/>
       <c r="AY21" s="99"/>
       <c r="AZ21" s="30"/>
-      <c r="BA21" s="113"/>
+      <c r="BA21" s="160"/>
       <c r="BE21" s="84"/>
     </row>
-    <row r="22" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="116"/>
+      <c r="B22" s="159"/>
       <c r="C22" s="32"/>
       <c r="D22" s="50" t="s">
         <v>66</v>
@@ -4348,8 +4348,8 @@
         <v>67</v>
       </c>
       <c r="K22" s="76"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="193"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="139"/>
       <c r="N22" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Kassys</v>
@@ -4358,7 +4358,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="P22" s="166"/>
+      <c r="P22" s="106"/>
       <c r="Q22" s="8" t="str" cm="1">
         <f t="array" ref="Q22">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B10))),"-")</f>
         <v>Ainleaf</v>
@@ -4366,10 +4366,10 @@
       <c r="R22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="S22" s="163"/>
+      <c r="S22" s="122"/>
       <c r="T22" s="76"/>
-      <c r="U22" s="163"/>
-      <c r="V22" s="169"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="149"/>
       <c r="W22" s="8" t="str">
         <f>IF(ISBLANK($R$37),"F1",$R$37)</f>
         <v>Znium</v>
@@ -4377,10 +4377,10 @@
       <c r="X22" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="163"/>
+      <c r="Y22" s="122"/>
       <c r="Z22" s="76"/>
-      <c r="AA22" s="163"/>
-      <c r="AB22" s="169"/>
+      <c r="AA22" s="122"/>
+      <c r="AB22" s="149"/>
       <c r="AC22" s="8" t="str">
         <f>IF(ISBLANK($X$29),"L1",$X$29)</f>
         <v>Staany</v>
@@ -4388,7 +4388,7 @@
       <c r="AD22" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="AE22" s="163"/>
+      <c r="AE22" s="122"/>
       <c r="AF22" s="76"/>
       <c r="AG22" s="76"/>
       <c r="AH22" s="76"/>
@@ -4401,7 +4401,7 @@
       <c r="AO22" s="76"/>
       <c r="AP22" s="76"/>
       <c r="AQ22" s="76"/>
-      <c r="AR22" s="111"/>
+      <c r="AR22" s="142"/>
       <c r="AS22" s="76"/>
       <c r="AT22" s="76"/>
       <c r="AU22" s="76"/>
@@ -4410,14 +4410,14 @@
       <c r="AX22" s="76"/>
       <c r="AY22" s="76"/>
       <c r="AZ22" s="30"/>
-      <c r="BA22" s="113"/>
+      <c r="BA22" s="160"/>
       <c r="BE22" s="84"/>
     </row>
-    <row r="23" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="116"/>
+      <c r="B23" s="159"/>
       <c r="C23" s="32"/>
       <c r="D23" s="50" t="s">
         <v>52</v>
@@ -4438,8 +4438,8 @@
         <v>70</v>
       </c>
       <c r="K23" s="76"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="193"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="139"/>
       <c r="N23" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Voltar</v>
@@ -4448,7 +4448,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="P23" s="166"/>
+      <c r="P23" s="106"/>
       <c r="Q23" s="8" t="str" cm="1">
         <f t="array" ref="Q23">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B18))),"-")</f>
         <v>Yuyu</v>
@@ -4456,10 +4456,10 @@
       <c r="R23" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="S23" s="163"/>
+      <c r="S23" s="122"/>
       <c r="T23" s="76"/>
-      <c r="U23" s="163"/>
-      <c r="V23" s="169"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="149"/>
       <c r="W23" s="8" t="str">
         <f>IF(ISBLANK($R$26),"C2",$R$26)</f>
         <v>Xols</v>
@@ -4467,10 +4467,10 @@
       <c r="X23" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="Y23" s="163"/>
+      <c r="Y23" s="122"/>
       <c r="Z23" s="76"/>
-      <c r="AA23" s="163"/>
-      <c r="AB23" s="169"/>
+      <c r="AA23" s="122"/>
+      <c r="AB23" s="149"/>
       <c r="AC23" s="8" t="str">
         <f>IF(ISBLANK($X$18),"I2",$X$18)</f>
         <v>Joey</v>
@@ -4478,7 +4478,7 @@
       <c r="AD23" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="AE23" s="163"/>
+      <c r="AE23" s="122"/>
       <c r="AF23" s="76"/>
       <c r="AG23" s="76"/>
       <c r="AH23" s="76"/>
@@ -4491,7 +4491,7 @@
       <c r="AO23" s="76"/>
       <c r="AP23" s="76"/>
       <c r="AQ23" s="76"/>
-      <c r="AR23" s="111"/>
+      <c r="AR23" s="142"/>
       <c r="AS23" s="76"/>
       <c r="AT23" s="76"/>
       <c r="AU23" s="76"/>
@@ -4500,14 +4500,14 @@
       <c r="AX23" s="76"/>
       <c r="AY23" s="76"/>
       <c r="AZ23" s="30"/>
-      <c r="BA23" s="113"/>
+      <c r="BA23" s="160"/>
       <c r="BE23" s="84"/>
     </row>
-    <row r="24" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="116"/>
+      <c r="B24" s="159"/>
       <c r="C24" s="32"/>
       <c r="D24" s="50" t="s">
         <v>74</v>
@@ -4528,8 +4528,8 @@
         <v>70</v>
       </c>
       <c r="K24" s="76"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="193"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="139"/>
       <c r="N24" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Supnyus</v>
@@ -4538,7 +4538,7 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P24" s="171"/>
+      <c r="P24" s="107"/>
       <c r="Q24" s="9" t="str" cm="1">
         <f t="array" ref="Q24">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B26))),"-")</f>
         <v>Leas</v>
@@ -4546,10 +4546,10 @@
       <c r="R24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="S24" s="163"/>
+      <c r="S24" s="122"/>
       <c r="T24" s="76"/>
-      <c r="U24" s="163"/>
-      <c r="V24" s="170"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="150"/>
       <c r="W24" s="9" t="str">
         <f>IF(ISBLANK($R$42),"G2",$R$42)</f>
         <v>Voltar</v>
@@ -4557,10 +4557,10 @@
       <c r="X24" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="Y24" s="163"/>
+      <c r="Y24" s="122"/>
       <c r="Z24" s="76"/>
-      <c r="AA24" s="167"/>
-      <c r="AB24" s="170"/>
+      <c r="AA24" s="123"/>
+      <c r="AB24" s="150"/>
       <c r="AC24" s="9" t="str">
         <f>IF(ISBLANK($X$26),"K2",$X$26)</f>
         <v>Aksl</v>
@@ -4568,7 +4568,7 @@
       <c r="AD24" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="AE24" s="167"/>
+      <c r="AE24" s="123"/>
       <c r="AF24" s="76"/>
       <c r="AG24" s="76"/>
       <c r="AH24" s="76"/>
@@ -4581,7 +4581,7 @@
       <c r="AO24" s="76"/>
       <c r="AP24" s="76"/>
       <c r="AQ24" s="76"/>
-      <c r="AR24" s="111"/>
+      <c r="AR24" s="142"/>
       <c r="AS24" s="76"/>
       <c r="AT24" s="76"/>
       <c r="AU24" s="76"/>
@@ -4590,14 +4590,14 @@
       <c r="AX24" s="76"/>
       <c r="AY24" s="76"/>
       <c r="AZ24" s="30"/>
-      <c r="BA24" s="113"/>
+      <c r="BA24" s="160"/>
       <c r="BE24" s="84"/>
     </row>
-    <row r="25" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="116"/>
+      <c r="B25" s="159"/>
       <c r="C25" s="32"/>
       <c r="D25" s="50" t="s">
         <v>72</v>
@@ -4618,8 +4618,8 @@
         <v>79</v>
       </c>
       <c r="K25" s="76"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="193"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="139"/>
       <c r="N25" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Antho</v>
@@ -4628,7 +4628,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="P25" s="165" t="s">
+      <c r="P25" s="105" t="s">
         <v>80</v>
       </c>
       <c r="Q25" s="7" t="str" cm="1">
@@ -4638,10 +4638,10 @@
       <c r="R25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S25" s="163"/>
+      <c r="S25" s="122"/>
       <c r="T25" s="76"/>
-      <c r="U25" s="163"/>
-      <c r="V25" s="175" t="s">
+      <c r="U25" s="122"/>
+      <c r="V25" s="151" t="s">
         <v>81</v>
       </c>
       <c r="W25" s="8" t="str">
@@ -4651,7 +4651,7 @@
       <c r="X25" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="Y25" s="163"/>
+      <c r="Y25" s="122"/>
       <c r="Z25" s="76"/>
       <c r="AA25" s="70"/>
       <c r="AB25" s="71"/>
@@ -4670,25 +4670,25 @@
       <c r="AO25" s="76"/>
       <c r="AP25" s="76"/>
       <c r="AQ25" s="76"/>
-      <c r="AR25" s="111"/>
+      <c r="AR25" s="142"/>
       <c r="AS25" s="76"/>
-      <c r="AT25" s="149" t="s">
+      <c r="AT25" s="109" t="s">
         <v>82</v>
       </c>
-      <c r="AU25" s="150"/>
-      <c r="AV25" s="150"/>
-      <c r="AW25" s="150"/>
-      <c r="AX25" s="150"/>
-      <c r="AY25" s="151"/>
+      <c r="AU25" s="110"/>
+      <c r="AV25" s="110"/>
+      <c r="AW25" s="110"/>
+      <c r="AX25" s="110"/>
+      <c r="AY25" s="111"/>
       <c r="AZ25" s="30"/>
-      <c r="BA25" s="113"/>
+      <c r="BA25" s="160"/>
       <c r="BE25" s="84"/>
     </row>
-    <row r="26" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="116"/>
+      <c r="B26" s="159"/>
       <c r="C26" s="32"/>
       <c r="D26" s="50" t="s">
         <v>84</v>
@@ -4709,8 +4709,8 @@
         <v>79</v>
       </c>
       <c r="K26" s="76"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="193"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="139"/>
       <c r="N26" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Ainleaf</v>
@@ -4719,7 +4719,7 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P26" s="166"/>
+      <c r="P26" s="106"/>
       <c r="Q26" s="8" t="str" cm="1">
         <f t="array" ref="Q26">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B11))),"-")</f>
         <v>Xols</v>
@@ -4727,10 +4727,10 @@
       <c r="R26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="S26" s="163"/>
+      <c r="S26" s="122"/>
       <c r="T26" s="76"/>
-      <c r="U26" s="163"/>
-      <c r="V26" s="176"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="152"/>
       <c r="W26" s="8" t="str">
         <f>IF(ISBLANK($R$41),"G1",$R$41)</f>
         <v>Aksl</v>
@@ -4738,7 +4738,7 @@
       <c r="X26" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="Y26" s="163"/>
+      <c r="Y26" s="122"/>
       <c r="Z26" s="76"/>
       <c r="AA26" s="76"/>
       <c r="AB26" s="76"/>
@@ -4757,23 +4757,23 @@
       <c r="AO26" s="76"/>
       <c r="AP26" s="76"/>
       <c r="AQ26" s="76"/>
-      <c r="AR26" s="111"/>
+      <c r="AR26" s="142"/>
       <c r="AS26" s="76"/>
-      <c r="AT26" s="152"/>
-      <c r="AU26" s="153"/>
-      <c r="AV26" s="153"/>
-      <c r="AW26" s="153"/>
-      <c r="AX26" s="153"/>
-      <c r="AY26" s="154"/>
+      <c r="AT26" s="112"/>
+      <c r="AU26" s="113"/>
+      <c r="AV26" s="113"/>
+      <c r="AW26" s="113"/>
+      <c r="AX26" s="113"/>
+      <c r="AY26" s="114"/>
       <c r="AZ26" s="30"/>
-      <c r="BA26" s="113"/>
+      <c r="BA26" s="160"/>
       <c r="BE26" s="84"/>
     </row>
-    <row r="27" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="116"/>
+      <c r="B27" s="159"/>
       <c r="C27" s="32"/>
       <c r="D27" s="50" t="s">
         <v>86</v>
@@ -4794,8 +4794,8 @@
         <v>79</v>
       </c>
       <c r="K27" s="76"/>
-      <c r="L27" s="111"/>
-      <c r="M27" s="193"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="139"/>
       <c r="N27" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Xols</v>
@@ -4804,7 +4804,7 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="P27" s="166"/>
+      <c r="P27" s="106"/>
       <c r="Q27" s="8" t="str" cm="1">
         <f t="array" ref="Q27">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B19))),"-")</f>
         <v>The Destroyer</v>
@@ -4812,10 +4812,10 @@
       <c r="R27" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="S27" s="163"/>
+      <c r="S27" s="122"/>
       <c r="T27" s="76"/>
-      <c r="U27" s="163"/>
-      <c r="V27" s="176"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="152"/>
       <c r="W27" s="8" t="str">
         <f>IF(ISBLANK($R$30),"D2",$R$30)</f>
         <v>Charasime</v>
@@ -4823,7 +4823,7 @@
       <c r="X27" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="Y27" s="163"/>
+      <c r="Y27" s="122"/>
       <c r="Z27" s="76"/>
       <c r="AA27" s="76"/>
       <c r="AB27" s="76"/>
@@ -4842,23 +4842,23 @@
       <c r="AO27" s="76"/>
       <c r="AP27" s="76"/>
       <c r="AQ27" s="76"/>
-      <c r="AR27" s="111"/>
+      <c r="AR27" s="142"/>
       <c r="AS27" s="76"/>
-      <c r="AT27" s="155"/>
-      <c r="AU27" s="156"/>
-      <c r="AV27" s="156"/>
-      <c r="AW27" s="156"/>
-      <c r="AX27" s="156"/>
-      <c r="AY27" s="157"/>
+      <c r="AT27" s="115"/>
+      <c r="AU27" s="116"/>
+      <c r="AV27" s="116"/>
+      <c r="AW27" s="116"/>
+      <c r="AX27" s="116"/>
+      <c r="AY27" s="117"/>
       <c r="AZ27" s="30"/>
-      <c r="BA27" s="113"/>
+      <c r="BA27" s="160"/>
       <c r="BE27" s="84"/>
     </row>
-    <row r="28" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="116"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="32"/>
       <c r="D28" s="50" t="s">
         <v>76</v>
@@ -4879,8 +4879,8 @@
         <v>89</v>
       </c>
       <c r="K28" s="76"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="193"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="139"/>
       <c r="N28" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Charasime</v>
@@ -4889,7 +4889,7 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P28" s="171"/>
+      <c r="P28" s="107"/>
       <c r="Q28" s="9" t="str" cm="1">
         <f t="array" ref="Q28">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B27))),"-")</f>
         <v>Frisouille</v>
@@ -4897,10 +4897,10 @@
       <c r="R28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="S28" s="163"/>
+      <c r="S28" s="122"/>
       <c r="T28" s="76"/>
-      <c r="U28" s="163"/>
-      <c r="V28" s="177"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="153"/>
       <c r="W28" s="8" t="str">
         <f>IF(ISBLANK($R$46),"H2",$R$46)</f>
         <v>Limule</v>
@@ -4908,7 +4908,7 @@
       <c r="X28" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="Y28" s="163"/>
+      <c r="Y28" s="122"/>
       <c r="Z28" s="76"/>
       <c r="AA28" s="76"/>
       <c r="AB28" s="76"/>
@@ -4927,7 +4927,7 @@
       <c r="AO28" s="76"/>
       <c r="AP28" s="76"/>
       <c r="AQ28" s="76"/>
-      <c r="AR28" s="111"/>
+      <c r="AR28" s="142"/>
       <c r="AS28" s="76"/>
       <c r="AT28" s="97"/>
       <c r="AU28" s="98"/>
@@ -4936,14 +4936,14 @@
       <c r="AX28" s="98"/>
       <c r="AY28" s="99"/>
       <c r="AZ28" s="30"/>
-      <c r="BA28" s="113"/>
+      <c r="BA28" s="160"/>
       <c r="BE28" s="84"/>
     </row>
-    <row r="29" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="116"/>
+      <c r="B29" s="159"/>
       <c r="C29" s="32"/>
       <c r="D29" s="20" t="s">
         <v>77</v>
@@ -4964,8 +4964,8 @@
         <v>89</v>
       </c>
       <c r="K29" s="76"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="193"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="139"/>
       <c r="N29" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Arthur</v>
@@ -4974,7 +4974,7 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="P29" s="165" t="s">
+      <c r="P29" s="105" t="s">
         <v>93</v>
       </c>
       <c r="Q29" s="7" t="str" cm="1">
@@ -4984,10 +4984,10 @@
       <c r="R29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="S29" s="163"/>
+      <c r="S29" s="122"/>
       <c r="T29" s="76"/>
-      <c r="U29" s="163"/>
-      <c r="V29" s="175" t="s">
+      <c r="U29" s="122"/>
+      <c r="V29" s="151" t="s">
         <v>94</v>
       </c>
       <c r="W29" s="7" t="str">
@@ -4997,7 +4997,7 @@
       <c r="X29" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="163"/>
+      <c r="Y29" s="122"/>
       <c r="Z29" s="76"/>
       <c r="AA29" s="76"/>
       <c r="AB29" s="76"/>
@@ -5016,7 +5016,7 @@
       <c r="AO29" s="76"/>
       <c r="AP29" s="76"/>
       <c r="AQ29" s="76"/>
-      <c r="AR29" s="111"/>
+      <c r="AR29" s="142"/>
       <c r="AS29" s="76"/>
       <c r="AT29" s="94"/>
       <c r="AU29" s="2">
@@ -5029,14 +5029,14 @@
       <c r="AX29" s="93"/>
       <c r="AY29" s="94"/>
       <c r="AZ29" s="30"/>
-      <c r="BA29" s="113"/>
+      <c r="BA29" s="160"/>
       <c r="BE29" s="84"/>
     </row>
-    <row r="30" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="116"/>
+      <c r="B30" s="159"/>
       <c r="C30" s="32"/>
       <c r="D30" s="50" t="s">
         <v>91</v>
@@ -5057,8 +5057,8 @@
         <v>89</v>
       </c>
       <c r="K30" s="76"/>
-      <c r="L30" s="111"/>
-      <c r="M30" s="193"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="139"/>
       <c r="N30" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Znium</v>
@@ -5067,7 +5067,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="P30" s="166"/>
+      <c r="P30" s="106"/>
       <c r="Q30" s="8" t="str" cm="1">
         <f t="array" ref="Q30">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B12))),"-")</f>
         <v>Charasime</v>
@@ -5075,10 +5075,10 @@
       <c r="R30" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="S30" s="163"/>
+      <c r="S30" s="122"/>
       <c r="T30" s="76"/>
-      <c r="U30" s="163"/>
-      <c r="V30" s="176"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="152"/>
       <c r="W30" s="8" t="str">
         <f>IF(ISBLANK($R$45),"H1",$R$45)</f>
         <v>Supnyus</v>
@@ -5086,7 +5086,7 @@
       <c r="X30" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="Y30" s="163"/>
+      <c r="Y30" s="122"/>
       <c r="Z30" s="76"/>
       <c r="AA30" s="76"/>
       <c r="AB30" s="76"/>
@@ -5105,7 +5105,7 @@
       <c r="AO30" s="76"/>
       <c r="AP30" s="76"/>
       <c r="AQ30" s="76"/>
-      <c r="AR30" s="111"/>
+      <c r="AR30" s="142"/>
       <c r="AS30" s="76"/>
       <c r="AT30" s="95"/>
       <c r="AU30" s="1" t="s">
@@ -5122,14 +5122,14 @@
       </c>
       <c r="AY30" s="95"/>
       <c r="AZ30" s="30"/>
-      <c r="BA30" s="113"/>
+      <c r="BA30" s="160"/>
       <c r="BE30" s="84"/>
     </row>
-    <row r="31" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="116"/>
+      <c r="B31" s="159"/>
       <c r="C31" s="32"/>
       <c r="D31" s="50" t="s">
         <v>39</v>
@@ -5150,8 +5150,8 @@
         <v>97</v>
       </c>
       <c r="K31" s="87"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="193"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="139"/>
       <c r="N31" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Aksl</v>
@@ -5160,7 +5160,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="P31" s="166"/>
+      <c r="P31" s="106"/>
       <c r="Q31" s="8" t="str" cm="1">
         <f t="array" ref="Q31">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B20))),"-")</f>
         <v>Liamsi</v>
@@ -5168,10 +5168,10 @@
       <c r="R31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="S31" s="163"/>
+      <c r="S31" s="122"/>
       <c r="T31" s="76"/>
-      <c r="U31" s="163"/>
-      <c r="V31" s="176"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="152"/>
       <c r="W31" s="8" t="str">
         <f>IF(ISBLANK($R$18),"A2",$R$18)</f>
         <v>Staany</v>
@@ -5179,7 +5179,7 @@
       <c r="X31" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="Y31" s="163"/>
+      <c r="Y31" s="122"/>
       <c r="Z31" s="76"/>
       <c r="AA31" s="76"/>
       <c r="AB31" s="76"/>
@@ -5198,10 +5198,10 @@
       <c r="AO31" s="76"/>
       <c r="AP31" s="76"/>
       <c r="AQ31" s="76"/>
-      <c r="AR31" s="111"/>
+      <c r="AR31" s="142"/>
       <c r="AS31" s="76"/>
       <c r="AT31" s="95"/>
-      <c r="AU31" s="135" t="s">
+      <c r="AU31" s="179" t="s">
         <v>99</v>
       </c>
       <c r="AV31" s="14" t="str">
@@ -5216,14 +5216,14 @@
       </c>
       <c r="AY31" s="100"/>
       <c r="AZ31" s="30"/>
-      <c r="BA31" s="113"/>
+      <c r="BA31" s="160"/>
       <c r="BE31" s="84"/>
     </row>
-    <row r="32" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="116"/>
+      <c r="B32" s="159"/>
       <c r="C32" s="32"/>
       <c r="D32" s="50" t="s">
         <v>53</v>
@@ -5244,8 +5244,8 @@
         <v>97</v>
       </c>
       <c r="K32" s="87"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="193"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="139"/>
       <c r="N32" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Limule</v>
@@ -5254,7 +5254,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="P32" s="171"/>
+      <c r="P32" s="107"/>
       <c r="Q32" s="9" t="str" cm="1">
         <f t="array" ref="Q32">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B28))),"-")</f>
         <v>Woople</v>
@@ -5262,10 +5262,10 @@
       <c r="R32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="S32" s="163"/>
+      <c r="S32" s="122"/>
       <c r="T32" s="76"/>
-      <c r="U32" s="167"/>
-      <c r="V32" s="176"/>
+      <c r="U32" s="123"/>
+      <c r="V32" s="152"/>
       <c r="W32" s="9" t="str">
         <f>IF(ISBLANK($R$34),"E2",$R$34)</f>
         <v>MeiLau</v>
@@ -5273,7 +5273,7 @@
       <c r="X32" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="Y32" s="167"/>
+      <c r="Y32" s="123"/>
       <c r="Z32" s="76"/>
       <c r="AA32" s="76"/>
       <c r="AB32" s="76"/>
@@ -5292,10 +5292,10 @@
       <c r="AO32" s="76"/>
       <c r="AP32" s="76"/>
       <c r="AQ32" s="76"/>
-      <c r="AR32" s="111"/>
+      <c r="AR32" s="142"/>
       <c r="AS32" s="76"/>
       <c r="AT32" s="95"/>
-      <c r="AU32" s="136"/>
+      <c r="AU32" s="180"/>
       <c r="AV32" s="15" t="str">
         <f>IF(ISBLANK($AP$66),"LF4",$AP$66)</f>
         <v>Aksl</v>
@@ -5310,14 +5310,14 @@
       <c r="AZ32" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="BA32" s="113"/>
+      <c r="BA32" s="160"/>
       <c r="BE32" s="84"/>
     </row>
-    <row r="33" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="116"/>
+      <c r="B33" s="159"/>
       <c r="C33" s="32"/>
       <c r="D33" s="50" t="s">
         <v>87</v>
@@ -5338,8 +5338,8 @@
         <v>97</v>
       </c>
       <c r="K33" s="87"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="193"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="139"/>
       <c r="N33" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Joey</v>
@@ -5348,7 +5348,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="P33" s="165" t="s">
+      <c r="P33" s="105" t="s">
         <v>105</v>
       </c>
       <c r="Q33" s="7" t="str" cm="1">
@@ -5358,13 +5358,13 @@
       <c r="R33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S33" s="163"/>
+      <c r="S33" s="122"/>
       <c r="T33" s="76"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="164"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="119"/>
+      <c r="W33" s="119"/>
+      <c r="X33" s="119"/>
+      <c r="Y33" s="120"/>
       <c r="Z33" s="76"/>
       <c r="AA33" s="76"/>
       <c r="AB33" s="76"/>
@@ -5383,10 +5383,10 @@
       <c r="AO33" s="76"/>
       <c r="AP33" s="76"/>
       <c r="AQ33" s="76"/>
-      <c r="AR33" s="111"/>
+      <c r="AR33" s="142"/>
       <c r="AS33" s="76"/>
       <c r="AT33" s="95"/>
-      <c r="AU33" s="136"/>
+      <c r="AU33" s="180"/>
       <c r="AV33" s="15" t="str">
         <f>IF(ISBLANK($AJ$65),"Z3",$AJ$65)</f>
         <v>Supnyus</v>
@@ -5399,14 +5399,14 @@
       </c>
       <c r="AY33" s="100"/>
       <c r="AZ33" s="30"/>
-      <c r="BA33" s="113"/>
+      <c r="BA33" s="160"/>
       <c r="BE33" s="84"/>
     </row>
-    <row r="34" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="116"/>
+      <c r="B34" s="159"/>
       <c r="C34" s="32"/>
       <c r="D34" s="50" t="s">
         <v>101</v>
@@ -5427,8 +5427,8 @@
         <v>97</v>
       </c>
       <c r="K34" s="87"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="193"/>
+      <c r="L34" s="142"/>
+      <c r="M34" s="139"/>
       <c r="N34" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Yuyu</v>
@@ -5437,7 +5437,7 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="P34" s="166"/>
+      <c r="P34" s="106"/>
       <c r="Q34" s="8" t="str" cm="1">
         <f t="array" ref="Q34">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B13))),"-")</f>
         <v>Arthur</v>
@@ -5445,7 +5445,7 @@
       <c r="R34" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="S34" s="163"/>
+      <c r="S34" s="122"/>
       <c r="T34" s="76"/>
       <c r="U34" s="76"/>
       <c r="V34" s="76"/>
@@ -5470,10 +5470,10 @@
       <c r="AO34" s="76"/>
       <c r="AP34" s="76"/>
       <c r="AQ34" s="76"/>
-      <c r="AR34" s="111"/>
+      <c r="AR34" s="142"/>
       <c r="AS34" s="76"/>
       <c r="AT34" s="96"/>
-      <c r="AU34" s="137"/>
+      <c r="AU34" s="181"/>
       <c r="AV34" s="16" t="str">
         <f>IF(ISBLANK($AJ$69),"AA3",$AJ$69)</f>
         <v>Arthur</v>
@@ -5486,14 +5486,14 @@
       </c>
       <c r="AY34" s="101"/>
       <c r="AZ34" s="30"/>
-      <c r="BA34" s="113"/>
+      <c r="BA34" s="160"/>
       <c r="BE34" s="84"/>
     </row>
-    <row r="35" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="116"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="32"/>
       <c r="D35" s="50" t="s">
         <v>102</v>
@@ -5514,8 +5514,8 @@
         <v>107</v>
       </c>
       <c r="K35" s="87"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="193"/>
+      <c r="L35" s="142"/>
+      <c r="M35" s="139"/>
       <c r="N35" s="86" t="str">
         <f t="shared" si="0"/>
         <v>The Destroyer</v>
@@ -5524,7 +5524,7 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="P35" s="166"/>
+      <c r="P35" s="106"/>
       <c r="Q35" s="8" t="str" cm="1">
         <f t="array" ref="Q35">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B21))),"-")</f>
         <v>MeiLau</v>
@@ -5532,7 +5532,7 @@
       <c r="R35" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="S35" s="163"/>
+      <c r="S35" s="122"/>
       <c r="T35" s="88"/>
       <c r="U35" s="88"/>
       <c r="V35" s="88"/>
@@ -5557,7 +5557,7 @@
       <c r="AO35" s="76"/>
       <c r="AP35" s="76"/>
       <c r="AQ35" s="76"/>
-      <c r="AR35" s="111"/>
+      <c r="AR35" s="142"/>
       <c r="AS35" s="76"/>
       <c r="AT35" s="97"/>
       <c r="AU35" s="98"/>
@@ -5566,14 +5566,14 @@
       <c r="AX35" s="102"/>
       <c r="AY35" s="99"/>
       <c r="AZ35" s="30"/>
-      <c r="BA35" s="113"/>
+      <c r="BA35" s="160"/>
       <c r="BE35" s="84"/>
     </row>
-    <row r="36" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="116"/>
+      <c r="B36" s="159"/>
       <c r="C36" s="32"/>
       <c r="D36" s="50" t="s">
         <v>109</v>
@@ -5594,8 +5594,8 @@
         <v>107</v>
       </c>
       <c r="K36" s="87"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="193"/>
+      <c r="L36" s="142"/>
+      <c r="M36" s="139"/>
       <c r="N36" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Liamsi</v>
@@ -5604,7 +5604,7 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="P36" s="171"/>
+      <c r="P36" s="107"/>
       <c r="Q36" s="9" t="str" cm="1">
         <f t="array" ref="Q36">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B29))),"-")</f>
         <v>Stern</v>
@@ -5612,7 +5612,7 @@
       <c r="R36" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="S36" s="163"/>
+      <c r="S36" s="122"/>
       <c r="T36" s="76"/>
       <c r="U36" s="76"/>
       <c r="V36" s="76"/>
@@ -5637,7 +5637,7 @@
       <c r="AO36" s="76"/>
       <c r="AP36" s="76"/>
       <c r="AQ36" s="76"/>
-      <c r="AR36" s="111"/>
+      <c r="AR36" s="142"/>
       <c r="AS36" s="76"/>
       <c r="AT36" s="76"/>
       <c r="AU36" s="76"/>
@@ -5646,14 +5646,14 @@
       <c r="AX36" s="76"/>
       <c r="AY36" s="76"/>
       <c r="AZ36" s="30"/>
-      <c r="BA36" s="113"/>
+      <c r="BA36" s="160"/>
       <c r="BE36" s="84"/>
     </row>
-    <row r="37" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="116"/>
+      <c r="B37" s="159"/>
       <c r="C37" s="32"/>
       <c r="D37" s="50" t="s">
         <v>112</v>
@@ -5674,8 +5674,8 @@
         <v>107</v>
       </c>
       <c r="K37" s="87"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="193"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="139"/>
       <c r="N37" s="86" t="str">
         <f t="shared" si="0"/>
         <v>MeiLau</v>
@@ -5684,7 +5684,7 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="P37" s="165" t="s">
+      <c r="P37" s="105" t="s">
         <v>113</v>
       </c>
       <c r="Q37" s="7" t="str" cm="1">
@@ -5694,7 +5694,7 @@
       <c r="R37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="S37" s="163"/>
+      <c r="S37" s="122"/>
       <c r="T37" s="76"/>
       <c r="U37" s="76"/>
       <c r="V37" s="76"/>
@@ -5719,7 +5719,7 @@
       <c r="AO37" s="76"/>
       <c r="AP37" s="76"/>
       <c r="AQ37" s="76"/>
-      <c r="AR37" s="111"/>
+      <c r="AR37" s="142"/>
       <c r="AS37" s="76"/>
       <c r="AT37" s="76"/>
       <c r="AU37" s="76"/>
@@ -5728,14 +5728,14 @@
       <c r="AX37" s="76"/>
       <c r="AY37" s="76"/>
       <c r="AZ37" s="30"/>
-      <c r="BA37" s="113"/>
+      <c r="BA37" s="160"/>
       <c r="BE37" s="84"/>
     </row>
-    <row r="38" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="116"/>
+      <c r="B38" s="159"/>
       <c r="C38" s="32"/>
       <c r="D38" s="20" t="s">
         <v>115</v>
@@ -5756,8 +5756,8 @@
         <v>107</v>
       </c>
       <c r="K38" s="87"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="193"/>
+      <c r="L38" s="142"/>
+      <c r="M38" s="139"/>
       <c r="N38" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Dark lord</v>
@@ -5766,7 +5766,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="P38" s="166"/>
+      <c r="P38" s="106"/>
       <c r="Q38" s="8" t="str" cm="1">
         <f t="array" ref="Q38">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B14))),"-")</f>
         <v>Znium</v>
@@ -5774,7 +5774,7 @@
       <c r="R38" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="S38" s="163"/>
+      <c r="S38" s="122"/>
       <c r="T38" s="76"/>
       <c r="U38" s="76"/>
       <c r="V38" s="76"/>
@@ -5799,7 +5799,7 @@
       <c r="AO38" s="76"/>
       <c r="AP38" s="76"/>
       <c r="AQ38" s="76"/>
-      <c r="AR38" s="111"/>
+      <c r="AR38" s="142"/>
       <c r="AS38" s="76"/>
       <c r="AT38" s="76"/>
       <c r="AU38" s="76"/>
@@ -5808,14 +5808,14 @@
       <c r="AX38" s="76"/>
       <c r="AY38" s="76"/>
       <c r="AZ38" s="30"/>
-      <c r="BA38" s="113"/>
+      <c r="BA38" s="160"/>
       <c r="BE38" s="84"/>
     </row>
-    <row r="39" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="116"/>
+      <c r="B39" s="159"/>
       <c r="C39" s="32"/>
       <c r="D39" s="20" t="s">
         <v>57</v>
@@ -5836,8 +5836,8 @@
         <v>117</v>
       </c>
       <c r="K39" s="87"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="193"/>
+      <c r="L39" s="142"/>
+      <c r="M39" s="139"/>
       <c r="N39" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Squid Game</v>
@@ -5846,7 +5846,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="P39" s="166"/>
+      <c r="P39" s="106"/>
       <c r="Q39" s="8" t="str" cm="1">
         <f t="array" ref="Q39">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B22))),"-")</f>
         <v>Dark lord</v>
@@ -5854,7 +5854,7 @@
       <c r="R39" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="S39" s="163"/>
+      <c r="S39" s="122"/>
       <c r="T39" s="76"/>
       <c r="U39" s="76"/>
       <c r="V39" s="76"/>
@@ -5879,7 +5879,7 @@
       <c r="AO39" s="76"/>
       <c r="AP39" s="76"/>
       <c r="AQ39" s="76"/>
-      <c r="AR39" s="111"/>
+      <c r="AR39" s="142"/>
       <c r="AS39" s="76"/>
       <c r="AT39" s="76"/>
       <c r="AU39" s="76"/>
@@ -5888,14 +5888,14 @@
       <c r="AX39" s="76"/>
       <c r="AY39" s="76"/>
       <c r="AZ39" s="30"/>
-      <c r="BA39" s="113"/>
+      <c r="BA39" s="160"/>
       <c r="BE39" s="84"/>
     </row>
-    <row r="40" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="116"/>
+      <c r="B40" s="159"/>
       <c r="C40" s="32"/>
       <c r="D40" s="20" t="s">
         <v>71</v>
@@ -5916,8 +5916,8 @@
         <v>117</v>
       </c>
       <c r="K40" s="87"/>
-      <c r="L40" s="111"/>
-      <c r="M40" s="193"/>
+      <c r="L40" s="142"/>
+      <c r="M40" s="139"/>
       <c r="N40" s="86" t="str">
         <f t="shared" si="0"/>
         <v>GutorLaFripouille</v>
@@ -5926,7 +5926,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="P40" s="166"/>
+      <c r="P40" s="106"/>
       <c r="Q40" s="9" t="str" cm="1">
         <f t="array" ref="Q40">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B30))),"-")</f>
         <v>-</v>
@@ -5934,7 +5934,7 @@
       <c r="R40" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="S40" s="163"/>
+      <c r="S40" s="122"/>
       <c r="T40" s="76"/>
       <c r="U40" s="76"/>
       <c r="V40" s="76"/>
@@ -5959,7 +5959,7 @@
       <c r="AO40" s="76"/>
       <c r="AP40" s="76"/>
       <c r="AQ40" s="76"/>
-      <c r="AR40" s="111"/>
+      <c r="AR40" s="142"/>
       <c r="AS40" s="76"/>
       <c r="AT40" s="76"/>
       <c r="AU40" s="76"/>
@@ -5968,14 +5968,14 @@
       <c r="AX40" s="76"/>
       <c r="AY40" s="76"/>
       <c r="AZ40" s="30"/>
-      <c r="BA40" s="113"/>
+      <c r="BA40" s="160"/>
       <c r="BE40" s="84"/>
     </row>
-    <row r="41" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="116"/>
+      <c r="B41" s="159"/>
       <c r="C41" s="32"/>
       <c r="D41" s="20" t="s">
         <v>90</v>
@@ -5996,8 +5996,8 @@
         <v>117</v>
       </c>
       <c r="K41" s="87"/>
-      <c r="L41" s="111"/>
-      <c r="M41" s="193"/>
+      <c r="L41" s="142"/>
+      <c r="M41" s="139"/>
       <c r="N41" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Groluche le louche</v>
@@ -6006,7 +6006,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="P41" s="168" t="s">
+      <c r="P41" s="108" t="s">
         <v>120</v>
       </c>
       <c r="Q41" s="7" t="str" cm="1">
@@ -6016,7 +6016,7 @@
       <c r="R41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="S41" s="163"/>
+      <c r="S41" s="122"/>
       <c r="T41" s="76"/>
       <c r="U41" s="76"/>
       <c r="V41" s="76"/>
@@ -6041,7 +6041,7 @@
       <c r="AO41" s="76"/>
       <c r="AP41" s="76"/>
       <c r="AQ41" s="76"/>
-      <c r="AR41" s="111"/>
+      <c r="AR41" s="142"/>
       <c r="AS41" s="76"/>
       <c r="AT41" s="76"/>
       <c r="AU41" s="76"/>
@@ -6050,14 +6050,14 @@
       <c r="AX41" s="76"/>
       <c r="AY41" s="76"/>
       <c r="AZ41" s="30"/>
-      <c r="BA41" s="113"/>
+      <c r="BA41" s="160"/>
       <c r="BE41" s="84"/>
     </row>
-    <row r="42" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="116"/>
+      <c r="B42" s="159"/>
       <c r="C42" s="32"/>
       <c r="D42" s="20" t="s">
         <v>98</v>
@@ -6078,8 +6078,8 @@
         <v>117</v>
       </c>
       <c r="K42" s="87"/>
-      <c r="L42" s="111"/>
-      <c r="M42" s="193"/>
+      <c r="L42" s="142"/>
+      <c r="M42" s="139"/>
       <c r="N42" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Leas</v>
@@ -6088,7 +6088,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="P42" s="166"/>
+      <c r="P42" s="106"/>
       <c r="Q42" s="8" t="str" cm="1">
         <f t="array" ref="Q42">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B15))),"-")</f>
         <v>Aksl</v>
@@ -6096,7 +6096,7 @@
       <c r="R42" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="S42" s="163"/>
+      <c r="S42" s="122"/>
       <c r="T42" s="76"/>
       <c r="U42" s="76"/>
       <c r="V42" s="76"/>
@@ -6121,7 +6121,7 @@
       <c r="AO42" s="76"/>
       <c r="AP42" s="76"/>
       <c r="AQ42" s="76"/>
-      <c r="AR42" s="111"/>
+      <c r="AR42" s="142"/>
       <c r="AS42" s="76"/>
       <c r="AT42" s="76"/>
       <c r="AU42" s="76"/>
@@ -6130,14 +6130,14 @@
       <c r="AX42" s="76"/>
       <c r="AY42" s="76"/>
       <c r="AZ42" s="30"/>
-      <c r="BA42" s="113"/>
+      <c r="BA42" s="160"/>
       <c r="BE42" s="84"/>
     </row>
-    <row r="43" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="116"/>
+      <c r="B43" s="159"/>
       <c r="C43" s="32"/>
       <c r="D43" s="20" t="s">
         <v>110</v>
@@ -6158,8 +6158,8 @@
         <v>123</v>
       </c>
       <c r="K43" s="87"/>
-      <c r="L43" s="111"/>
-      <c r="M43" s="193"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="139"/>
       <c r="N43" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Frisouille</v>
@@ -6168,7 +6168,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="P43" s="166"/>
+      <c r="P43" s="106"/>
       <c r="Q43" s="8" t="str" cm="1">
         <f t="array" ref="Q43">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B23))),"-")</f>
         <v>Squid Game</v>
@@ -6176,7 +6176,7 @@
       <c r="R43" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="S43" s="163"/>
+      <c r="S43" s="122"/>
       <c r="T43" s="76"/>
       <c r="U43" s="76"/>
       <c r="V43" s="76"/>
@@ -6201,7 +6201,7 @@
       <c r="AO43" s="76"/>
       <c r="AP43" s="76"/>
       <c r="AQ43" s="76"/>
-      <c r="AR43" s="111"/>
+      <c r="AR43" s="142"/>
       <c r="AS43" s="76"/>
       <c r="AT43" s="76"/>
       <c r="AU43" s="76"/>
@@ -6210,14 +6210,14 @@
       <c r="AX43" s="76"/>
       <c r="AY43" s="76"/>
       <c r="AZ43" s="30"/>
-      <c r="BA43" s="113"/>
+      <c r="BA43" s="160"/>
       <c r="BE43" s="84"/>
     </row>
-    <row r="44" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="116"/>
+      <c r="B44" s="159"/>
       <c r="C44" s="32"/>
       <c r="D44" s="20" t="s">
         <v>125</v>
@@ -6238,8 +6238,8 @@
         <v>123</v>
       </c>
       <c r="K44" s="87"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="193"/>
+      <c r="L44" s="142"/>
+      <c r="M44" s="139"/>
       <c r="N44" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Woople</v>
@@ -6248,7 +6248,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="P44" s="171"/>
+      <c r="P44" s="107"/>
       <c r="Q44" s="9" t="str" cm="1">
         <f t="array" ref="Q44">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B31))),"-")</f>
         <v>-</v>
@@ -6256,7 +6256,7 @@
       <c r="R44" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="S44" s="163"/>
+      <c r="S44" s="122"/>
       <c r="T44" s="76"/>
       <c r="U44" s="76"/>
       <c r="V44" s="76"/>
@@ -6281,7 +6281,7 @@
       <c r="AO44" s="76"/>
       <c r="AP44" s="76"/>
       <c r="AQ44" s="76"/>
-      <c r="AR44" s="111"/>
+      <c r="AR44" s="142"/>
       <c r="AS44" s="76"/>
       <c r="AT44" s="76"/>
       <c r="AU44" s="76"/>
@@ -6290,14 +6290,14 @@
       <c r="AX44" s="76"/>
       <c r="AY44" s="76"/>
       <c r="AZ44" s="30"/>
-      <c r="BA44" s="113"/>
+      <c r="BA44" s="160"/>
       <c r="BE44" s="84"/>
     </row>
-    <row r="45" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="116"/>
+      <c r="B45" s="159"/>
       <c r="C45" s="32"/>
       <c r="D45" s="20" t="s">
         <v>127</v>
@@ -6318,8 +6318,8 @@
         <v>123</v>
       </c>
       <c r="K45" s="87"/>
-      <c r="L45" s="111"/>
-      <c r="M45" s="193"/>
+      <c r="L45" s="142"/>
+      <c r="M45" s="139"/>
       <c r="N45" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Stern</v>
@@ -6328,7 +6328,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="P45" s="165" t="s">
+      <c r="P45" s="105" t="s">
         <v>128</v>
       </c>
       <c r="Q45" s="7" t="str" cm="1">
@@ -6338,7 +6338,7 @@
       <c r="R45" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S45" s="163"/>
+      <c r="S45" s="122"/>
       <c r="T45" s="76"/>
       <c r="U45" s="76"/>
       <c r="V45" s="76"/>
@@ -6363,7 +6363,7 @@
       <c r="AO45" s="76"/>
       <c r="AP45" s="76"/>
       <c r="AQ45" s="76"/>
-      <c r="AR45" s="111"/>
+      <c r="AR45" s="142"/>
       <c r="AS45" s="76"/>
       <c r="AT45" s="76"/>
       <c r="AU45" s="76"/>
@@ -6372,14 +6372,14 @@
       <c r="AX45" s="76"/>
       <c r="AY45" s="76"/>
       <c r="AZ45" s="30"/>
-      <c r="BA45" s="113"/>
+      <c r="BA45" s="160"/>
       <c r="BE45" s="84"/>
     </row>
-    <row r="46" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="116"/>
+      <c r="B46" s="159"/>
       <c r="C46" s="32"/>
       <c r="D46" s="21" t="s">
         <v>130</v>
@@ -6400,8 +6400,8 @@
         <v>123</v>
       </c>
       <c r="K46" s="87"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="193"/>
+      <c r="L46" s="142"/>
+      <c r="M46" s="139"/>
       <c r="N46" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Participant #30</v>
@@ -6410,7 +6410,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P46" s="166"/>
+      <c r="P46" s="106"/>
       <c r="Q46" s="8" t="str" cm="1">
         <f t="array" ref="Q46">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B16))),"-")</f>
         <v>Limule</v>
@@ -6418,7 +6418,7 @@
       <c r="R46" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="S46" s="163"/>
+      <c r="S46" s="122"/>
       <c r="T46" s="76"/>
       <c r="U46" s="76"/>
       <c r="V46" s="76"/>
@@ -6443,7 +6443,7 @@
       <c r="AO46" s="76"/>
       <c r="AP46" s="76"/>
       <c r="AQ46" s="76"/>
-      <c r="AR46" s="111"/>
+      <c r="AR46" s="142"/>
       <c r="AS46" s="76"/>
       <c r="AT46" s="76"/>
       <c r="AU46" s="76"/>
@@ -6452,14 +6452,14 @@
       <c r="AX46" s="76"/>
       <c r="AY46" s="76"/>
       <c r="AZ46" s="30"/>
-      <c r="BA46" s="113"/>
+      <c r="BA46" s="160"/>
       <c r="BE46" s="84"/>
     </row>
-    <row r="47" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="116"/>
+      <c r="B47" s="159"/>
       <c r="C47" s="32"/>
       <c r="D47" s="89"/>
       <c r="E47" s="80"/>
@@ -6469,8 +6469,8 @@
       <c r="I47" s="80"/>
       <c r="J47" s="80"/>
       <c r="K47" s="87"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="193"/>
+      <c r="L47" s="142"/>
+      <c r="M47" s="139"/>
       <c r="N47" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Participant #31</v>
@@ -6479,7 +6479,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P47" s="166"/>
+      <c r="P47" s="106"/>
       <c r="Q47" s="8" t="str" cm="1">
         <f t="array" ref="Q47">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B24))),"-")</f>
         <v>GutorLaFripouille</v>
@@ -6487,7 +6487,7 @@
       <c r="R47" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="S47" s="163"/>
+      <c r="S47" s="122"/>
       <c r="T47" s="76"/>
       <c r="U47" s="76"/>
       <c r="V47" s="76"/>
@@ -6512,7 +6512,7 @@
       <c r="AO47" s="76"/>
       <c r="AP47" s="76"/>
       <c r="AQ47" s="76"/>
-      <c r="AR47" s="111"/>
+      <c r="AR47" s="142"/>
       <c r="AS47" s="76"/>
       <c r="AT47" s="76"/>
       <c r="AU47" s="76"/>
@@ -6521,14 +6521,14 @@
       <c r="AX47" s="76"/>
       <c r="AY47" s="76"/>
       <c r="AZ47" s="30"/>
-      <c r="BA47" s="113"/>
+      <c r="BA47" s="160"/>
       <c r="BE47" s="84"/>
     </row>
-    <row r="48" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="B48" s="116"/>
+      <c r="B48" s="159"/>
       <c r="C48" s="32"/>
       <c r="D48" s="89"/>
       <c r="E48" s="80"/>
@@ -6538,8 +6538,8 @@
       <c r="I48" s="80"/>
       <c r="J48" s="80"/>
       <c r="K48" s="87"/>
-      <c r="L48" s="111"/>
-      <c r="M48" s="194"/>
+      <c r="L48" s="142"/>
+      <c r="M48" s="140"/>
       <c r="N48" s="86" t="str">
         <f t="shared" si="0"/>
         <v>Participant #32</v>
@@ -6548,7 +6548,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="P48" s="166"/>
+      <c r="P48" s="106"/>
       <c r="Q48" s="9" t="str" cm="1">
         <f t="array" ref="Q48">IFERROR(INDEX($N$17:$N$48,SMALL($O$17:$O$48,ROW(B32))),"-")</f>
         <v>-</v>
@@ -6556,7 +6556,7 @@
       <c r="R48" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="S48" s="167"/>
+      <c r="S48" s="123"/>
       <c r="T48" s="76"/>
       <c r="U48" s="76"/>
       <c r="V48" s="76"/>
@@ -6581,7 +6581,7 @@
       <c r="AO48" s="76"/>
       <c r="AP48" s="76"/>
       <c r="AQ48" s="76"/>
-      <c r="AR48" s="111"/>
+      <c r="AR48" s="142"/>
       <c r="AS48" s="76"/>
       <c r="AT48" s="76"/>
       <c r="AU48" s="76"/>
@@ -6590,14 +6590,14 @@
       <c r="AX48" s="76"/>
       <c r="AY48" s="76"/>
       <c r="AZ48" s="30"/>
-      <c r="BA48" s="113"/>
+      <c r="BA48" s="160"/>
       <c r="BE48" s="84"/>
     </row>
-    <row r="49" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="116"/>
+      <c r="B49" s="159"/>
       <c r="C49" s="32"/>
       <c r="D49" s="89"/>
       <c r="E49" s="80"/>
@@ -6607,14 +6607,14 @@
       <c r="I49" s="80"/>
       <c r="J49" s="80"/>
       <c r="K49" s="87"/>
-      <c r="L49" s="111"/>
-      <c r="M49" s="148"/>
-      <c r="N49" s="148"/>
-      <c r="O49" s="148"/>
-      <c r="P49" s="148"/>
-      <c r="Q49" s="195"/>
-      <c r="R49" s="148"/>
-      <c r="S49" s="164"/>
+      <c r="L49" s="142"/>
+      <c r="M49" s="119"/>
+      <c r="N49" s="119"/>
+      <c r="O49" s="119"/>
+      <c r="P49" s="119"/>
+      <c r="Q49" s="144"/>
+      <c r="R49" s="119"/>
+      <c r="S49" s="120"/>
       <c r="T49" s="76"/>
       <c r="U49" s="76"/>
       <c r="V49" s="76"/>
@@ -6639,7 +6639,7 @@
       <c r="AO49" s="76"/>
       <c r="AP49" s="76"/>
       <c r="AQ49" s="76"/>
-      <c r="AR49" s="111"/>
+      <c r="AR49" s="142"/>
       <c r="AS49" s="76"/>
       <c r="AT49" s="76"/>
       <c r="AU49" s="76"/>
@@ -6648,14 +6648,14 @@
       <c r="AX49" s="76"/>
       <c r="AY49" s="76"/>
       <c r="AZ49" s="30"/>
-      <c r="BA49" s="113"/>
+      <c r="BA49" s="160"/>
       <c r="BE49" s="84"/>
     </row>
-    <row r="50" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="B50" s="116"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="31"/>
       <c r="D50" s="76"/>
       <c r="E50" s="79"/>
@@ -6665,7 +6665,7 @@
       <c r="I50" s="80"/>
       <c r="J50" s="80"/>
       <c r="K50" s="76"/>
-      <c r="L50" s="111"/>
+      <c r="L50" s="142"/>
       <c r="M50" s="76"/>
       <c r="N50" s="76"/>
       <c r="O50" s="76"/>
@@ -6697,7 +6697,7 @@
       <c r="AO50" s="76"/>
       <c r="AP50" s="76"/>
       <c r="AQ50" s="76"/>
-      <c r="AR50" s="111"/>
+      <c r="AR50" s="142"/>
       <c r="AS50" s="76"/>
       <c r="AT50" s="76"/>
       <c r="AU50" s="76"/>
@@ -6706,14 +6706,14 @@
       <c r="AX50" s="76"/>
       <c r="AY50" s="76"/>
       <c r="AZ50" s="30"/>
-      <c r="BA50" s="113"/>
+      <c r="BA50" s="160"/>
       <c r="BE50" s="84"/>
     </row>
-    <row r="51" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="116"/>
+      <c r="B51" s="159"/>
       <c r="C51" s="31"/>
       <c r="D51" s="76"/>
       <c r="E51" s="79"/>
@@ -6723,7 +6723,7 @@
       <c r="I51" s="80"/>
       <c r="J51" s="80"/>
       <c r="K51" s="76"/>
-      <c r="L51" s="111"/>
+      <c r="L51" s="142"/>
       <c r="M51" s="76"/>
       <c r="N51" s="76"/>
       <c r="O51" s="76"/>
@@ -6755,7 +6755,7 @@
       <c r="AO51" s="76"/>
       <c r="AP51" s="76"/>
       <c r="AQ51" s="76"/>
-      <c r="AR51" s="111"/>
+      <c r="AR51" s="142"/>
       <c r="AS51" s="76"/>
       <c r="AT51" s="76"/>
       <c r="AU51" s="76"/>
@@ -6764,14 +6764,14 @@
       <c r="AX51" s="76"/>
       <c r="AY51" s="76"/>
       <c r="AZ51" s="30"/>
-      <c r="BA51" s="113"/>
+      <c r="BA51" s="160"/>
       <c r="BE51" s="84"/>
     </row>
-    <row r="52" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="116"/>
+      <c r="B52" s="159"/>
       <c r="C52" s="31"/>
       <c r="D52" s="76"/>
       <c r="E52" s="79"/>
@@ -6781,41 +6781,41 @@
       <c r="I52" s="80"/>
       <c r="J52" s="80"/>
       <c r="K52" s="76"/>
-      <c r="L52" s="111"/>
-      <c r="M52" s="117" t="s">
+      <c r="L52" s="142"/>
+      <c r="M52" s="161" t="s">
         <v>136</v>
       </c>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="118"/>
-      <c r="W52" s="118"/>
-      <c r="X52" s="118"/>
-      <c r="Y52" s="118"/>
-      <c r="Z52" s="118"/>
-      <c r="AA52" s="118"/>
-      <c r="AB52" s="118"/>
-      <c r="AC52" s="118"/>
-      <c r="AD52" s="118"/>
-      <c r="AE52" s="118"/>
-      <c r="AF52" s="118"/>
-      <c r="AG52" s="118"/>
-      <c r="AH52" s="118"/>
-      <c r="AI52" s="118"/>
-      <c r="AJ52" s="118"/>
-      <c r="AK52" s="118"/>
-      <c r="AL52" s="118"/>
-      <c r="AM52" s="118"/>
-      <c r="AN52" s="118"/>
-      <c r="AO52" s="118"/>
-      <c r="AP52" s="118"/>
-      <c r="AQ52" s="119"/>
-      <c r="AR52" s="111"/>
+      <c r="N52" s="162"/>
+      <c r="O52" s="162"/>
+      <c r="P52" s="162"/>
+      <c r="Q52" s="162"/>
+      <c r="R52" s="162"/>
+      <c r="S52" s="162"/>
+      <c r="T52" s="162"/>
+      <c r="U52" s="162"/>
+      <c r="V52" s="162"/>
+      <c r="W52" s="162"/>
+      <c r="X52" s="162"/>
+      <c r="Y52" s="162"/>
+      <c r="Z52" s="162"/>
+      <c r="AA52" s="162"/>
+      <c r="AB52" s="162"/>
+      <c r="AC52" s="162"/>
+      <c r="AD52" s="162"/>
+      <c r="AE52" s="162"/>
+      <c r="AF52" s="162"/>
+      <c r="AG52" s="162"/>
+      <c r="AH52" s="162"/>
+      <c r="AI52" s="162"/>
+      <c r="AJ52" s="162"/>
+      <c r="AK52" s="162"/>
+      <c r="AL52" s="162"/>
+      <c r="AM52" s="162"/>
+      <c r="AN52" s="162"/>
+      <c r="AO52" s="162"/>
+      <c r="AP52" s="162"/>
+      <c r="AQ52" s="163"/>
+      <c r="AR52" s="142"/>
       <c r="AS52" s="76"/>
       <c r="AT52" s="76"/>
       <c r="AU52" s="76"/>
@@ -6824,14 +6824,14 @@
       <c r="AX52" s="76"/>
       <c r="AY52" s="76"/>
       <c r="AZ52" s="30"/>
-      <c r="BA52" s="113"/>
+      <c r="BA52" s="160"/>
       <c r="BE52" s="84"/>
     </row>
-    <row r="53" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="116"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="31"/>
       <c r="D53" s="76"/>
       <c r="E53" s="79"/>
@@ -6841,39 +6841,39 @@
       <c r="I53" s="80"/>
       <c r="J53" s="80"/>
       <c r="K53" s="76"/>
-      <c r="L53" s="111"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="121"/>
-      <c r="O53" s="121"/>
-      <c r="P53" s="121"/>
-      <c r="Q53" s="121"/>
-      <c r="R53" s="121"/>
-      <c r="S53" s="121"/>
-      <c r="T53" s="121"/>
-      <c r="U53" s="121"/>
-      <c r="V53" s="121"/>
-      <c r="W53" s="121"/>
-      <c r="X53" s="121"/>
-      <c r="Y53" s="121"/>
-      <c r="Z53" s="121"/>
-      <c r="AA53" s="121"/>
-      <c r="AB53" s="121"/>
-      <c r="AC53" s="121"/>
-      <c r="AD53" s="121"/>
-      <c r="AE53" s="121"/>
-      <c r="AF53" s="121"/>
-      <c r="AG53" s="121"/>
-      <c r="AH53" s="121"/>
-      <c r="AI53" s="121"/>
-      <c r="AJ53" s="121"/>
-      <c r="AK53" s="121"/>
-      <c r="AL53" s="121"/>
-      <c r="AM53" s="121"/>
-      <c r="AN53" s="121"/>
-      <c r="AO53" s="121"/>
-      <c r="AP53" s="121"/>
-      <c r="AQ53" s="122"/>
-      <c r="AR53" s="111"/>
+      <c r="L53" s="142"/>
+      <c r="M53" s="164"/>
+      <c r="N53" s="165"/>
+      <c r="O53" s="165"/>
+      <c r="P53" s="165"/>
+      <c r="Q53" s="165"/>
+      <c r="R53" s="165"/>
+      <c r="S53" s="165"/>
+      <c r="T53" s="165"/>
+      <c r="U53" s="165"/>
+      <c r="V53" s="165"/>
+      <c r="W53" s="165"/>
+      <c r="X53" s="165"/>
+      <c r="Y53" s="165"/>
+      <c r="Z53" s="165"/>
+      <c r="AA53" s="165"/>
+      <c r="AB53" s="165"/>
+      <c r="AC53" s="165"/>
+      <c r="AD53" s="165"/>
+      <c r="AE53" s="165"/>
+      <c r="AF53" s="165"/>
+      <c r="AG53" s="165"/>
+      <c r="AH53" s="165"/>
+      <c r="AI53" s="165"/>
+      <c r="AJ53" s="165"/>
+      <c r="AK53" s="165"/>
+      <c r="AL53" s="165"/>
+      <c r="AM53" s="165"/>
+      <c r="AN53" s="165"/>
+      <c r="AO53" s="165"/>
+      <c r="AP53" s="165"/>
+      <c r="AQ53" s="166"/>
+      <c r="AR53" s="142"/>
       <c r="AS53" s="76"/>
       <c r="AT53" s="76"/>
       <c r="AU53" s="76"/>
@@ -6882,14 +6882,14 @@
       <c r="AX53" s="76"/>
       <c r="AY53" s="76"/>
       <c r="AZ53" s="30"/>
-      <c r="BA53" s="113"/>
+      <c r="BA53" s="160"/>
       <c r="BE53" s="84"/>
     </row>
-    <row r="54" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="116"/>
+      <c r="B54" s="159"/>
       <c r="C54" s="31"/>
       <c r="D54" s="76"/>
       <c r="E54" s="79"/>
@@ -6899,39 +6899,39 @@
       <c r="I54" s="80"/>
       <c r="J54" s="80"/>
       <c r="K54" s="76"/>
-      <c r="L54" s="111"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="124"/>
-      <c r="O54" s="124"/>
-      <c r="P54" s="124"/>
-      <c r="Q54" s="124"/>
-      <c r="R54" s="124"/>
-      <c r="S54" s="124"/>
-      <c r="T54" s="124"/>
-      <c r="U54" s="124"/>
-      <c r="V54" s="124"/>
-      <c r="W54" s="124"/>
-      <c r="X54" s="124"/>
-      <c r="Y54" s="124"/>
-      <c r="Z54" s="124"/>
-      <c r="AA54" s="124"/>
-      <c r="AB54" s="124"/>
-      <c r="AC54" s="124"/>
-      <c r="AD54" s="124"/>
-      <c r="AE54" s="124"/>
-      <c r="AF54" s="124"/>
-      <c r="AG54" s="124"/>
-      <c r="AH54" s="124"/>
-      <c r="AI54" s="124"/>
-      <c r="AJ54" s="124"/>
-      <c r="AK54" s="124"/>
-      <c r="AL54" s="124"/>
-      <c r="AM54" s="124"/>
-      <c r="AN54" s="124"/>
-      <c r="AO54" s="124"/>
-      <c r="AP54" s="124"/>
-      <c r="AQ54" s="125"/>
-      <c r="AR54" s="111"/>
+      <c r="L54" s="142"/>
+      <c r="M54" s="167"/>
+      <c r="N54" s="168"/>
+      <c r="O54" s="168"/>
+      <c r="P54" s="168"/>
+      <c r="Q54" s="168"/>
+      <c r="R54" s="168"/>
+      <c r="S54" s="168"/>
+      <c r="T54" s="168"/>
+      <c r="U54" s="168"/>
+      <c r="V54" s="168"/>
+      <c r="W54" s="168"/>
+      <c r="X54" s="168"/>
+      <c r="Y54" s="168"/>
+      <c r="Z54" s="168"/>
+      <c r="AA54" s="168"/>
+      <c r="AB54" s="168"/>
+      <c r="AC54" s="168"/>
+      <c r="AD54" s="168"/>
+      <c r="AE54" s="168"/>
+      <c r="AF54" s="168"/>
+      <c r="AG54" s="168"/>
+      <c r="AH54" s="168"/>
+      <c r="AI54" s="168"/>
+      <c r="AJ54" s="168"/>
+      <c r="AK54" s="168"/>
+      <c r="AL54" s="168"/>
+      <c r="AM54" s="168"/>
+      <c r="AN54" s="168"/>
+      <c r="AO54" s="168"/>
+      <c r="AP54" s="168"/>
+      <c r="AQ54" s="169"/>
+      <c r="AR54" s="142"/>
       <c r="AS54" s="76"/>
       <c r="AT54" s="76"/>
       <c r="AU54" s="76"/>
@@ -6940,14 +6940,14 @@
       <c r="AX54" s="76"/>
       <c r="AY54" s="76"/>
       <c r="AZ54" s="30"/>
-      <c r="BA54" s="113"/>
+      <c r="BA54" s="160"/>
       <c r="BE54" s="84"/>
     </row>
-    <row r="55" spans="1:57" s="66" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:57" s="66" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="B55" s="116"/>
+      <c r="B55" s="159"/>
       <c r="C55" s="31"/>
       <c r="D55" s="76"/>
       <c r="E55" s="79"/>
@@ -6957,7 +6957,7 @@
       <c r="I55" s="80"/>
       <c r="J55" s="80"/>
       <c r="K55" s="76"/>
-      <c r="L55" s="111"/>
+      <c r="L55" s="142"/>
       <c r="M55" s="76"/>
       <c r="N55" s="76"/>
       <c r="O55" s="76"/>
@@ -6989,7 +6989,7 @@
       <c r="AO55" s="76"/>
       <c r="AP55" s="76"/>
       <c r="AQ55" s="76"/>
-      <c r="AR55" s="111"/>
+      <c r="AR55" s="142"/>
       <c r="AS55" s="76"/>
       <c r="AT55" s="76"/>
       <c r="AU55" s="76"/>
@@ -6998,14 +6998,14 @@
       <c r="AX55" s="76"/>
       <c r="AY55" s="76"/>
       <c r="AZ55" s="30"/>
-      <c r="BA55" s="113"/>
+      <c r="BA55" s="160"/>
       <c r="BE55" s="84"/>
     </row>
-    <row r="56" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="B56" s="116"/>
+      <c r="B56" s="159"/>
       <c r="C56" s="31"/>
       <c r="D56" s="76"/>
       <c r="E56" s="79"/>
@@ -7015,7 +7015,7 @@
       <c r="I56" s="80"/>
       <c r="J56" s="80"/>
       <c r="K56" s="76"/>
-      <c r="L56" s="111"/>
+      <c r="L56" s="142"/>
       <c r="M56" s="76"/>
       <c r="N56" s="76"/>
       <c r="O56" s="76"/>
@@ -7047,7 +7047,7 @@
       <c r="AO56" s="76"/>
       <c r="AP56" s="76"/>
       <c r="AQ56" s="76"/>
-      <c r="AR56" s="111"/>
+      <c r="AR56" s="142"/>
       <c r="AS56" s="76"/>
       <c r="AT56" s="76"/>
       <c r="AU56" s="76"/>
@@ -7056,14 +7056,14 @@
       <c r="AX56" s="76"/>
       <c r="AY56" s="76"/>
       <c r="AZ56" s="30"/>
-      <c r="BA56" s="113"/>
+      <c r="BA56" s="160"/>
       <c r="BE56" s="84"/>
     </row>
-    <row r="57" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="116"/>
+      <c r="B57" s="159"/>
       <c r="C57" s="31"/>
       <c r="D57" s="76"/>
       <c r="E57" s="79"/>
@@ -7073,49 +7073,49 @@
       <c r="I57" s="80"/>
       <c r="J57" s="80"/>
       <c r="K57" s="76"/>
-      <c r="L57" s="111"/>
-      <c r="M57" s="150" t="s">
+      <c r="L57" s="142"/>
+      <c r="M57" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="N57" s="150"/>
-      <c r="O57" s="150"/>
-      <c r="P57" s="150"/>
-      <c r="Q57" s="150"/>
-      <c r="R57" s="150"/>
-      <c r="S57" s="151"/>
+      <c r="N57" s="110"/>
+      <c r="O57" s="110"/>
+      <c r="P57" s="110"/>
+      <c r="Q57" s="110"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="111"/>
       <c r="T57" s="85"/>
-      <c r="U57" s="149" t="s">
+      <c r="U57" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="V57" s="150"/>
-      <c r="W57" s="150"/>
-      <c r="X57" s="150"/>
-      <c r="Y57" s="151"/>
+      <c r="V57" s="110"/>
+      <c r="W57" s="110"/>
+      <c r="X57" s="110"/>
+      <c r="Y57" s="111"/>
       <c r="Z57" s="85"/>
-      <c r="AA57" s="149" t="s">
+      <c r="AA57" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="AB57" s="150"/>
-      <c r="AC57" s="150"/>
-      <c r="AD57" s="150"/>
-      <c r="AE57" s="151"/>
+      <c r="AB57" s="110"/>
+      <c r="AC57" s="110"/>
+      <c r="AD57" s="110"/>
+      <c r="AE57" s="111"/>
       <c r="AF57" s="76"/>
-      <c r="AG57" s="149" t="s">
+      <c r="AG57" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="AH57" s="150"/>
-      <c r="AI57" s="150"/>
-      <c r="AJ57" s="150"/>
-      <c r="AK57" s="151"/>
+      <c r="AH57" s="110"/>
+      <c r="AI57" s="110"/>
+      <c r="AJ57" s="110"/>
+      <c r="AK57" s="111"/>
       <c r="AL57" s="76"/>
-      <c r="AM57" s="149" t="s">
+      <c r="AM57" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="AN57" s="150"/>
-      <c r="AO57" s="150"/>
-      <c r="AP57" s="150"/>
-      <c r="AQ57" s="150"/>
-      <c r="AR57" s="111"/>
+      <c r="AN57" s="110"/>
+      <c r="AO57" s="110"/>
+      <c r="AP57" s="110"/>
+      <c r="AQ57" s="110"/>
+      <c r="AR57" s="142"/>
       <c r="AS57" s="76"/>
       <c r="AT57" s="76"/>
       <c r="AU57" s="76"/>
@@ -7124,14 +7124,14 @@
       <c r="AX57" s="76"/>
       <c r="AY57" s="76"/>
       <c r="AZ57" s="30"/>
-      <c r="BA57" s="113"/>
+      <c r="BA57" s="160"/>
       <c r="BE57" s="84"/>
     </row>
-    <row r="58" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="116"/>
+      <c r="B58" s="159"/>
       <c r="C58" s="31"/>
       <c r="D58" s="76"/>
       <c r="E58" s="79"/>
@@ -7141,39 +7141,39 @@
       <c r="I58" s="80"/>
       <c r="J58" s="80"/>
       <c r="K58" s="76"/>
-      <c r="L58" s="111"/>
-      <c r="M58" s="153"/>
-      <c r="N58" s="153"/>
-      <c r="O58" s="153"/>
-      <c r="P58" s="153"/>
-      <c r="Q58" s="153"/>
-      <c r="R58" s="153"/>
-      <c r="S58" s="154"/>
+      <c r="L58" s="142"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113"/>
+      <c r="O58" s="113"/>
+      <c r="P58" s="113"/>
+      <c r="Q58" s="113"/>
+      <c r="R58" s="113"/>
+      <c r="S58" s="114"/>
       <c r="T58" s="85"/>
-      <c r="U58" s="152"/>
-      <c r="V58" s="153"/>
-      <c r="W58" s="153"/>
-      <c r="X58" s="153"/>
-      <c r="Y58" s="154"/>
+      <c r="U58" s="112"/>
+      <c r="V58" s="113"/>
+      <c r="W58" s="113"/>
+      <c r="X58" s="113"/>
+      <c r="Y58" s="114"/>
       <c r="Z58" s="85"/>
-      <c r="AA58" s="152"/>
-      <c r="AB58" s="153"/>
-      <c r="AC58" s="153"/>
-      <c r="AD58" s="153"/>
-      <c r="AE58" s="154"/>
+      <c r="AA58" s="112"/>
+      <c r="AB58" s="113"/>
+      <c r="AC58" s="113"/>
+      <c r="AD58" s="113"/>
+      <c r="AE58" s="114"/>
       <c r="AF58" s="76"/>
-      <c r="AG58" s="152"/>
-      <c r="AH58" s="153"/>
-      <c r="AI58" s="153"/>
-      <c r="AJ58" s="153"/>
-      <c r="AK58" s="154"/>
+      <c r="AG58" s="112"/>
+      <c r="AH58" s="113"/>
+      <c r="AI58" s="113"/>
+      <c r="AJ58" s="113"/>
+      <c r="AK58" s="114"/>
       <c r="AL58" s="76"/>
-      <c r="AM58" s="152"/>
-      <c r="AN58" s="153"/>
-      <c r="AO58" s="153"/>
-      <c r="AP58" s="153"/>
-      <c r="AQ58" s="153"/>
-      <c r="AR58" s="111"/>
+      <c r="AM58" s="112"/>
+      <c r="AN58" s="113"/>
+      <c r="AO58" s="113"/>
+      <c r="AP58" s="113"/>
+      <c r="AQ58" s="113"/>
+      <c r="AR58" s="142"/>
       <c r="AS58" s="76"/>
       <c r="AT58" s="76"/>
       <c r="AU58" s="76"/>
@@ -7182,14 +7182,14 @@
       <c r="AX58" s="76"/>
       <c r="AY58" s="76"/>
       <c r="AZ58" s="30"/>
-      <c r="BA58" s="113"/>
+      <c r="BA58" s="160"/>
       <c r="BE58" s="84"/>
     </row>
-    <row r="59" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="116"/>
+      <c r="B59" s="159"/>
       <c r="C59" s="31"/>
       <c r="D59" s="76"/>
       <c r="E59" s="79"/>
@@ -7199,39 +7199,39 @@
       <c r="I59" s="80"/>
       <c r="J59" s="80"/>
       <c r="K59" s="76"/>
-      <c r="L59" s="111"/>
-      <c r="M59" s="156"/>
-      <c r="N59" s="156"/>
-      <c r="O59" s="156"/>
-      <c r="P59" s="156"/>
-      <c r="Q59" s="156"/>
-      <c r="R59" s="156"/>
-      <c r="S59" s="157"/>
+      <c r="L59" s="142"/>
+      <c r="M59" s="116"/>
+      <c r="N59" s="116"/>
+      <c r="O59" s="116"/>
+      <c r="P59" s="116"/>
+      <c r="Q59" s="116"/>
+      <c r="R59" s="116"/>
+      <c r="S59" s="117"/>
       <c r="T59" s="85"/>
-      <c r="U59" s="155"/>
-      <c r="V59" s="156"/>
-      <c r="W59" s="156"/>
-      <c r="X59" s="156"/>
-      <c r="Y59" s="157"/>
+      <c r="U59" s="115"/>
+      <c r="V59" s="116"/>
+      <c r="W59" s="116"/>
+      <c r="X59" s="116"/>
+      <c r="Y59" s="117"/>
       <c r="Z59" s="85"/>
-      <c r="AA59" s="155"/>
-      <c r="AB59" s="156"/>
-      <c r="AC59" s="156"/>
-      <c r="AD59" s="156"/>
-      <c r="AE59" s="157"/>
+      <c r="AA59" s="115"/>
+      <c r="AB59" s="116"/>
+      <c r="AC59" s="116"/>
+      <c r="AD59" s="116"/>
+      <c r="AE59" s="117"/>
       <c r="AF59" s="76"/>
-      <c r="AG59" s="155"/>
-      <c r="AH59" s="156"/>
-      <c r="AI59" s="156"/>
-      <c r="AJ59" s="156"/>
-      <c r="AK59" s="157"/>
+      <c r="AG59" s="115"/>
+      <c r="AH59" s="116"/>
+      <c r="AI59" s="116"/>
+      <c r="AJ59" s="116"/>
+      <c r="AK59" s="117"/>
       <c r="AL59" s="76"/>
-      <c r="AM59" s="155"/>
-      <c r="AN59" s="156"/>
-      <c r="AO59" s="156"/>
-      <c r="AP59" s="156"/>
-      <c r="AQ59" s="156"/>
-      <c r="AR59" s="111"/>
+      <c r="AM59" s="115"/>
+      <c r="AN59" s="116"/>
+      <c r="AO59" s="116"/>
+      <c r="AP59" s="116"/>
+      <c r="AQ59" s="116"/>
+      <c r="AR59" s="142"/>
       <c r="AS59" s="76"/>
       <c r="AT59" s="76"/>
       <c r="AU59" s="76"/>
@@ -7240,14 +7240,14 @@
       <c r="AX59" s="76"/>
       <c r="AY59" s="76"/>
       <c r="AZ59" s="30"/>
-      <c r="BA59" s="113"/>
+      <c r="BA59" s="160"/>
       <c r="BE59" s="84"/>
     </row>
-    <row r="60" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="116"/>
+      <c r="B60" s="159"/>
       <c r="C60" s="31"/>
       <c r="D60" s="76"/>
       <c r="E60" s="79"/>
@@ -7257,39 +7257,39 @@
       <c r="I60" s="80"/>
       <c r="J60" s="80"/>
       <c r="K60" s="76"/>
-      <c r="L60" s="111"/>
-      <c r="M60" s="148"/>
-      <c r="N60" s="148"/>
-      <c r="O60" s="148"/>
-      <c r="P60" s="148"/>
-      <c r="Q60" s="148"/>
-      <c r="R60" s="148"/>
-      <c r="S60" s="164"/>
+      <c r="L60" s="142"/>
+      <c r="M60" s="119"/>
+      <c r="N60" s="119"/>
+      <c r="O60" s="119"/>
+      <c r="P60" s="119"/>
+      <c r="Q60" s="119"/>
+      <c r="R60" s="119"/>
+      <c r="S60" s="120"/>
       <c r="T60" s="76"/>
-      <c r="U60" s="147"/>
-      <c r="V60" s="148"/>
-      <c r="W60" s="148"/>
-      <c r="X60" s="148"/>
-      <c r="Y60" s="164"/>
+      <c r="U60" s="118"/>
+      <c r="V60" s="119"/>
+      <c r="W60" s="119"/>
+      <c r="X60" s="119"/>
+      <c r="Y60" s="120"/>
       <c r="Z60" s="76"/>
-      <c r="AA60" s="147"/>
-      <c r="AB60" s="148"/>
-      <c r="AC60" s="148"/>
-      <c r="AD60" s="148"/>
-      <c r="AE60" s="164"/>
+      <c r="AA60" s="118"/>
+      <c r="AB60" s="119"/>
+      <c r="AC60" s="119"/>
+      <c r="AD60" s="119"/>
+      <c r="AE60" s="120"/>
       <c r="AF60" s="76"/>
-      <c r="AG60" s="147"/>
-      <c r="AH60" s="148"/>
-      <c r="AI60" s="148"/>
-      <c r="AJ60" s="148"/>
-      <c r="AK60" s="164"/>
+      <c r="AG60" s="118"/>
+      <c r="AH60" s="119"/>
+      <c r="AI60" s="119"/>
+      <c r="AJ60" s="119"/>
+      <c r="AK60" s="120"/>
       <c r="AL60" s="76"/>
-      <c r="AM60" s="147"/>
-      <c r="AN60" s="148"/>
-      <c r="AO60" s="148"/>
-      <c r="AP60" s="148"/>
-      <c r="AQ60" s="148"/>
-      <c r="AR60" s="111"/>
+      <c r="AM60" s="118"/>
+      <c r="AN60" s="119"/>
+      <c r="AO60" s="119"/>
+      <c r="AP60" s="119"/>
+      <c r="AQ60" s="119"/>
+      <c r="AR60" s="142"/>
       <c r="AS60" s="76"/>
       <c r="AT60" s="76"/>
       <c r="AU60" s="76"/>
@@ -7298,14 +7298,14 @@
       <c r="AX60" s="76"/>
       <c r="AY60" s="76"/>
       <c r="AZ60" s="30"/>
-      <c r="BA60" s="113"/>
+      <c r="BA60" s="160"/>
       <c r="BE60" s="84"/>
     </row>
-    <row r="61" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="116"/>
+      <c r="B61" s="159"/>
       <c r="C61" s="31"/>
       <c r="D61" s="76"/>
       <c r="E61" s="79"/>
@@ -7315,8 +7315,8 @@
       <c r="I61" s="80"/>
       <c r="J61" s="80"/>
       <c r="K61" s="76"/>
-      <c r="L61" s="111"/>
-      <c r="M61" s="162"/>
+      <c r="L61" s="142"/>
+      <c r="M61" s="121"/>
       <c r="P61" s="13">
         <v>4</v>
       </c>
@@ -7324,48 +7324,48 @@
         <v>26</v>
       </c>
       <c r="R61" s="92"/>
-      <c r="S61" s="162"/>
+      <c r="S61" s="121"/>
       <c r="T61" s="76"/>
-      <c r="U61" s="162"/>
+      <c r="U61" s="121"/>
       <c r="V61" s="2">
         <v>4</v>
       </c>
-      <c r="W61" s="158" t="s">
+      <c r="W61" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="X61" s="159"/>
-      <c r="Y61" s="162"/>
+      <c r="X61" s="148"/>
+      <c r="Y61" s="121"/>
       <c r="Z61" s="90"/>
-      <c r="AA61" s="162"/>
+      <c r="AA61" s="121"/>
       <c r="AB61" s="55">
         <v>4</v>
       </c>
-      <c r="AC61" s="158" t="s">
+      <c r="AC61" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="AD61" s="158"/>
-      <c r="AE61" s="162"/>
+      <c r="AD61" s="147"/>
+      <c r="AE61" s="121"/>
       <c r="AF61" s="76"/>
-      <c r="AG61" s="162"/>
+      <c r="AG61" s="121"/>
       <c r="AH61" s="2">
         <v>4</v>
       </c>
-      <c r="AI61" s="158" t="s">
+      <c r="AI61" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="AJ61" s="159"/>
-      <c r="AK61" s="162"/>
+      <c r="AJ61" s="148"/>
+      <c r="AK61" s="121"/>
       <c r="AL61" s="76"/>
       <c r="AM61" s="68"/>
       <c r="AN61" s="2">
         <v>4</v>
       </c>
-      <c r="AO61" s="158" t="s">
+      <c r="AO61" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="AP61" s="159"/>
+      <c r="AP61" s="148"/>
       <c r="AQ61" s="64"/>
-      <c r="AR61" s="111"/>
+      <c r="AR61" s="142"/>
       <c r="AS61" s="76"/>
       <c r="AT61" s="76"/>
       <c r="AU61" s="76"/>
@@ -7374,14 +7374,14 @@
       <c r="AX61" s="76"/>
       <c r="AY61" s="76"/>
       <c r="AZ61" s="30"/>
-      <c r="BA61" s="113"/>
+      <c r="BA61" s="160"/>
       <c r="BE61" s="84"/>
     </row>
-    <row r="62" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="116"/>
+      <c r="B62" s="159"/>
       <c r="C62" s="31"/>
       <c r="D62" s="76"/>
       <c r="E62" s="79"/>
@@ -7391,8 +7391,8 @@
       <c r="I62" s="80"/>
       <c r="J62" s="80"/>
       <c r="K62" s="76"/>
-      <c r="L62" s="111"/>
-      <c r="M62" s="163"/>
+      <c r="L62" s="142"/>
+      <c r="M62" s="122"/>
       <c r="P62" s="1" t="s">
         <v>30</v>
       </c>
@@ -7402,9 +7402,9 @@
       <c r="R62" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="S62" s="163"/>
+      <c r="S62" s="122"/>
       <c r="T62" s="76"/>
-      <c r="U62" s="163"/>
+      <c r="U62" s="122"/>
       <c r="V62" s="1" t="s">
         <v>30</v>
       </c>
@@ -7414,9 +7414,9 @@
       <c r="X62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y62" s="163"/>
+      <c r="Y62" s="122"/>
       <c r="Z62" s="80"/>
-      <c r="AA62" s="163"/>
+      <c r="AA62" s="122"/>
       <c r="AB62" s="56" t="s">
         <v>30</v>
       </c>
@@ -7426,9 +7426,9 @@
       <c r="AD62" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="AE62" s="163"/>
+      <c r="AE62" s="122"/>
       <c r="AF62" s="76"/>
-      <c r="AG62" s="163"/>
+      <c r="AG62" s="122"/>
       <c r="AH62" s="1" t="s">
         <v>30</v>
       </c>
@@ -7438,7 +7438,7 @@
       <c r="AJ62" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AK62" s="163"/>
+      <c r="AK62" s="122"/>
       <c r="AL62" s="76"/>
       <c r="AM62" s="63"/>
       <c r="AN62" s="1" t="s">
@@ -7451,7 +7451,7 @@
         <v>32</v>
       </c>
       <c r="AQ62" s="65"/>
-      <c r="AR62" s="111"/>
+      <c r="AR62" s="142"/>
       <c r="AS62" s="76"/>
       <c r="AT62" s="76"/>
       <c r="AU62" s="76"/>
@@ -7460,14 +7460,14 @@
       <c r="AX62" s="76"/>
       <c r="AY62" s="76"/>
       <c r="AZ62" s="30"/>
-      <c r="BA62" s="113"/>
+      <c r="BA62" s="160"/>
       <c r="BE62" s="84"/>
     </row>
-    <row r="63" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="116"/>
+      <c r="B63" s="159"/>
       <c r="C63" s="31"/>
       <c r="D63" s="76"/>
       <c r="E63" s="79"/>
@@ -7477,9 +7477,9 @@
       <c r="I63" s="80"/>
       <c r="J63" s="80"/>
       <c r="K63" s="76"/>
-      <c r="L63" s="111"/>
-      <c r="M63" s="163"/>
-      <c r="P63" s="172" t="s">
+      <c r="L63" s="142"/>
+      <c r="M63" s="122"/>
+      <c r="P63" s="154" t="s">
         <v>151</v>
       </c>
       <c r="Q63" s="7" t="str">
@@ -7489,10 +7489,10 @@
       <c r="R63" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="S63" s="163"/>
+      <c r="S63" s="122"/>
       <c r="T63" s="76"/>
-      <c r="U63" s="163"/>
-      <c r="V63" s="165" t="s">
+      <c r="U63" s="122"/>
+      <c r="V63" s="105" t="s">
         <v>152</v>
       </c>
       <c r="W63" s="7" t="str">
@@ -7502,10 +7502,10 @@
       <c r="X63" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Y63" s="163"/>
+      <c r="Y63" s="122"/>
       <c r="Z63" s="67"/>
-      <c r="AA63" s="163"/>
-      <c r="AB63" s="168" t="s">
+      <c r="AA63" s="122"/>
+      <c r="AB63" s="108" t="s">
         <v>153</v>
       </c>
       <c r="AC63" s="14" t="str">
@@ -7515,10 +7515,10 @@
       <c r="AD63" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AE63" s="163"/>
+      <c r="AE63" s="122"/>
       <c r="AF63" s="76"/>
-      <c r="AG63" s="163"/>
-      <c r="AH63" s="165" t="s">
+      <c r="AG63" s="122"/>
+      <c r="AH63" s="105" t="s">
         <v>154</v>
       </c>
       <c r="AI63" s="7" t="str">
@@ -7528,10 +7528,10 @@
       <c r="AJ63" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AK63" s="163"/>
+      <c r="AK63" s="122"/>
       <c r="AL63" s="76"/>
       <c r="AM63" s="63"/>
-      <c r="AN63" s="160" t="s">
+      <c r="AN63" s="191" t="s">
         <v>155</v>
       </c>
       <c r="AO63" s="7" t="str">
@@ -7542,7 +7542,7 @@
         <v>54</v>
       </c>
       <c r="AQ63" s="65"/>
-      <c r="AR63" s="111"/>
+      <c r="AR63" s="142"/>
       <c r="AS63" s="76"/>
       <c r="AT63" s="76"/>
       <c r="AU63" s="76"/>
@@ -7551,14 +7551,14 @@
       <c r="AX63" s="76"/>
       <c r="AY63" s="76"/>
       <c r="AZ63" s="30"/>
-      <c r="BA63" s="113"/>
+      <c r="BA63" s="160"/>
       <c r="BE63" s="84"/>
     </row>
-    <row r="64" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="B64" s="116"/>
+      <c r="B64" s="159"/>
       <c r="C64" s="31"/>
       <c r="D64" s="76"/>
       <c r="E64" s="79"/>
@@ -7568,9 +7568,9 @@
       <c r="I64" s="80"/>
       <c r="J64" s="80"/>
       <c r="K64" s="76"/>
-      <c r="L64" s="111"/>
-      <c r="M64" s="163"/>
-      <c r="P64" s="173"/>
+      <c r="L64" s="142"/>
+      <c r="M64" s="122"/>
+      <c r="P64" s="155"/>
       <c r="Q64" s="8" t="str">
         <f>IF(ISBLANK($R$35),"E3",$R$35)</f>
         <v>Arthur</v>
@@ -7578,10 +7578,10 @@
       <c r="R64" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="S64" s="163"/>
+      <c r="S64" s="122"/>
       <c r="T64" s="76"/>
-      <c r="U64" s="163"/>
-      <c r="V64" s="166"/>
+      <c r="U64" s="122"/>
+      <c r="V64" s="106"/>
       <c r="W64" s="8" t="str">
         <f>IF(ISBLANK($R$72),"Q2",$R$72)</f>
         <v>Liamsi</v>
@@ -7589,10 +7589,10 @@
       <c r="X64" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="Y64" s="163"/>
+      <c r="Y64" s="122"/>
       <c r="Z64" s="67"/>
-      <c r="AA64" s="163"/>
-      <c r="AB64" s="169"/>
+      <c r="AA64" s="122"/>
+      <c r="AB64" s="149"/>
       <c r="AC64" s="15" t="str">
         <f>IF(ISBLANK($X$68),"T2",$X$68)</f>
         <v>Supnyus</v>
@@ -7600,10 +7600,10 @@
       <c r="AD64" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="AE64" s="163"/>
+      <c r="AE64" s="122"/>
       <c r="AF64" s="76"/>
-      <c r="AG64" s="163"/>
-      <c r="AH64" s="166"/>
+      <c r="AG64" s="122"/>
+      <c r="AH64" s="106"/>
       <c r="AI64" s="8" t="str">
         <f>IF(ISBLANK($AD$68),"X2",$AD$68)</f>
         <v>Kassys</v>
@@ -7611,10 +7611,10 @@
       <c r="AJ64" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AK64" s="163"/>
+      <c r="AK64" s="122"/>
       <c r="AL64" s="76"/>
       <c r="AM64" s="63"/>
-      <c r="AN64" s="161"/>
+      <c r="AN64" s="192"/>
       <c r="AO64" s="8" t="str">
         <f>IF(ISBLANK($AJ$67),"AA1",$AJ$67)</f>
         <v>GoGu</v>
@@ -7623,7 +7623,7 @@
         <v>35</v>
       </c>
       <c r="AQ64" s="65"/>
-      <c r="AR64" s="111"/>
+      <c r="AR64" s="142"/>
       <c r="AS64" s="76"/>
       <c r="AT64" s="76"/>
       <c r="AU64" s="76"/>
@@ -7632,14 +7632,14 @@
       <c r="AX64" s="76"/>
       <c r="AY64" s="76"/>
       <c r="AZ64" s="30"/>
-      <c r="BA64" s="113"/>
+      <c r="BA64" s="160"/>
       <c r="BE64" s="84"/>
     </row>
-    <row r="65" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="B65" s="116"/>
+      <c r="B65" s="159"/>
       <c r="C65" s="31"/>
       <c r="D65" s="76"/>
       <c r="E65" s="79"/>
@@ -7649,9 +7649,9 @@
       <c r="I65" s="80"/>
       <c r="J65" s="80"/>
       <c r="K65" s="76"/>
-      <c r="L65" s="111"/>
-      <c r="M65" s="163"/>
-      <c r="P65" s="173"/>
+      <c r="L65" s="142"/>
+      <c r="M65" s="122"/>
+      <c r="P65" s="155"/>
       <c r="Q65" s="8" t="str">
         <f>IF(ISBLANK($R$24),"B4",$R$24)</f>
         <v>Ainleaf</v>
@@ -7659,10 +7659,10 @@
       <c r="R65" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="S65" s="163"/>
+      <c r="S65" s="122"/>
       <c r="T65" s="76"/>
-      <c r="U65" s="163"/>
-      <c r="V65" s="166"/>
+      <c r="U65" s="122"/>
+      <c r="V65" s="106"/>
       <c r="W65" s="8" t="str">
         <f>IF(ISBLANK($X$19),"I3",$X$19)</f>
         <v>Yuyu</v>
@@ -7670,10 +7670,10 @@
       <c r="X65" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Y65" s="163"/>
+      <c r="Y65" s="122"/>
       <c r="Z65" s="67"/>
-      <c r="AA65" s="163"/>
-      <c r="AB65" s="169"/>
+      <c r="AA65" s="122"/>
+      <c r="AB65" s="149"/>
       <c r="AC65" s="8" t="str">
         <f>IF(ISBLANK($X$72),"U2",$X$72)</f>
         <v>Woople</v>
@@ -7681,10 +7681,10 @@
       <c r="AD65" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="AE65" s="163"/>
+      <c r="AE65" s="122"/>
       <c r="AF65" s="76"/>
-      <c r="AG65" s="163"/>
-      <c r="AH65" s="166"/>
+      <c r="AG65" s="122"/>
+      <c r="AH65" s="106"/>
       <c r="AI65" s="8" t="str">
         <f>IF(ISBLANK($AD$72),"Y2",$AD$72)</f>
         <v>Voltar</v>
@@ -7692,10 +7692,10 @@
       <c r="AJ65" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AK65" s="163"/>
+      <c r="AK65" s="122"/>
       <c r="AL65" s="76"/>
       <c r="AM65" s="63"/>
-      <c r="AN65" s="161"/>
+      <c r="AN65" s="192"/>
       <c r="AO65" s="8" t="str">
         <f>IF(ISBLANK($AJ$64),"Z2",$AJ$64)</f>
         <v>Ranto</v>
@@ -7704,7 +7704,7 @@
         <v>46</v>
       </c>
       <c r="AQ65" s="65"/>
-      <c r="AR65" s="111"/>
+      <c r="AR65" s="142"/>
       <c r="AS65" s="76"/>
       <c r="AT65" s="76"/>
       <c r="AU65" s="76"/>
@@ -7713,14 +7713,14 @@
       <c r="AX65" s="76"/>
       <c r="AY65" s="76"/>
       <c r="AZ65" s="30"/>
-      <c r="BA65" s="113"/>
+      <c r="BA65" s="160"/>
       <c r="BE65" s="84"/>
     </row>
-    <row r="66" spans="1:57" s="66" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:57" s="66" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="B66" s="116"/>
+      <c r="B66" s="159"/>
       <c r="C66" s="31"/>
       <c r="D66" s="76"/>
       <c r="E66" s="79"/>
@@ -7730,9 +7730,9 @@
       <c r="I66" s="80"/>
       <c r="J66" s="80"/>
       <c r="K66" s="76"/>
-      <c r="L66" s="111"/>
-      <c r="M66" s="163"/>
-      <c r="P66" s="174"/>
+      <c r="L66" s="142"/>
+      <c r="M66" s="122"/>
+      <c r="P66" s="156"/>
       <c r="Q66" s="8" t="str">
         <f>IF(ISBLANK($R$40),"F4",$R$40)</f>
         <v>-</v>
@@ -7740,10 +7740,10 @@
       <c r="R66" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="S66" s="163"/>
+      <c r="S66" s="122"/>
       <c r="T66" s="76"/>
-      <c r="U66" s="163"/>
-      <c r="V66" s="171"/>
+      <c r="U66" s="122"/>
+      <c r="V66" s="107"/>
       <c r="W66" s="8" t="str">
         <f>IF(ISBLANK($X$32),"L4",$X$32)</f>
         <v>MeiLau</v>
@@ -7751,9 +7751,9 @@
       <c r="X66" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y66" s="163"/>
-      <c r="AA66" s="163"/>
-      <c r="AB66" s="170"/>
+      <c r="Y66" s="122"/>
+      <c r="AA66" s="122"/>
+      <c r="AB66" s="150"/>
       <c r="AC66" s="8" t="str">
         <f>IF(ISBLANK($AD$19),"M3",$AD$19)</f>
         <v>Rouxblart</v>
@@ -7761,10 +7761,10 @@
       <c r="AD66" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="AE66" s="163"/>
+      <c r="AE66" s="122"/>
       <c r="AF66" s="77"/>
-      <c r="AG66" s="163"/>
-      <c r="AH66" s="166"/>
+      <c r="AG66" s="122"/>
+      <c r="AH66" s="106"/>
       <c r="AI66" s="8" t="str">
         <f>IF(ISBLANK($AJ$19),"WF3",$AJ$19)</f>
         <v>Ranto</v>
@@ -7772,10 +7772,10 @@
       <c r="AJ66" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AK66" s="163"/>
+      <c r="AK66" s="122"/>
       <c r="AL66" s="76"/>
       <c r="AM66" s="63"/>
-      <c r="AN66" s="161"/>
+      <c r="AN66" s="192"/>
       <c r="AO66" s="8" t="str">
         <f>IF(ISBLANK($AJ$68),"AA2",$AJ$68)</f>
         <v>Aksl</v>
@@ -7784,7 +7784,7 @@
         <v>77</v>
       </c>
       <c r="AQ66" s="65"/>
-      <c r="AR66" s="111"/>
+      <c r="AR66" s="142"/>
       <c r="AS66" s="76"/>
       <c r="AT66" s="76"/>
       <c r="AU66" s="76"/>
@@ -7793,14 +7793,14 @@
       <c r="AX66" s="76"/>
       <c r="AY66" s="76"/>
       <c r="AZ66" s="30"/>
-      <c r="BA66" s="113"/>
+      <c r="BA66" s="160"/>
       <c r="BE66" s="84"/>
     </row>
-    <row r="67" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="B67" s="116"/>
+      <c r="B67" s="159"/>
       <c r="C67" s="31"/>
       <c r="D67" s="76"/>
       <c r="E67" s="79"/>
@@ -7810,9 +7810,9 @@
       <c r="I67" s="80"/>
       <c r="J67" s="80"/>
       <c r="K67" s="76"/>
-      <c r="L67" s="111"/>
-      <c r="M67" s="163"/>
-      <c r="P67" s="172" t="s">
+      <c r="L67" s="142"/>
+      <c r="M67" s="122"/>
+      <c r="P67" s="154" t="s">
         <v>160</v>
       </c>
       <c r="Q67" s="7" t="str">
@@ -7822,10 +7822,10 @@
       <c r="R67" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="S67" s="163"/>
+      <c r="S67" s="122"/>
       <c r="T67" s="76"/>
-      <c r="U67" s="163"/>
-      <c r="V67" s="165" t="s">
+      <c r="U67" s="122"/>
+      <c r="V67" s="105" t="s">
         <v>161</v>
       </c>
       <c r="W67" s="7" t="str">
@@ -7835,10 +7835,10 @@
       <c r="X67" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Y67" s="163"/>
+      <c r="Y67" s="122"/>
       <c r="Z67" s="67"/>
-      <c r="AA67" s="163"/>
-      <c r="AB67" s="168" t="s">
+      <c r="AA67" s="122"/>
+      <c r="AB67" s="108" t="s">
         <v>162</v>
       </c>
       <c r="AC67" s="14" t="str">
@@ -7848,10 +7848,10 @@
       <c r="AD67" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="AE67" s="163"/>
+      <c r="AE67" s="122"/>
       <c r="AF67" s="77"/>
-      <c r="AG67" s="163"/>
-      <c r="AH67" s="165" t="s">
+      <c r="AG67" s="122"/>
+      <c r="AH67" s="105" t="s">
         <v>163</v>
       </c>
       <c r="AI67" s="7" t="str">
@@ -7861,14 +7861,14 @@
       <c r="AJ67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK67" s="163"/>
+      <c r="AK67" s="122"/>
       <c r="AL67" s="76"/>
-      <c r="AM67" s="147"/>
-      <c r="AN67" s="148"/>
-      <c r="AO67" s="148"/>
-      <c r="AP67" s="148"/>
-      <c r="AQ67" s="148"/>
-      <c r="AR67" s="111"/>
+      <c r="AM67" s="118"/>
+      <c r="AN67" s="119"/>
+      <c r="AO67" s="119"/>
+      <c r="AP67" s="119"/>
+      <c r="AQ67" s="119"/>
+      <c r="AR67" s="142"/>
       <c r="AS67" s="76"/>
       <c r="AT67" s="76"/>
       <c r="AU67" s="76"/>
@@ -7877,14 +7877,14 @@
       <c r="AX67" s="76"/>
       <c r="AY67" s="76"/>
       <c r="AZ67" s="30"/>
-      <c r="BA67" s="113"/>
+      <c r="BA67" s="160"/>
       <c r="BE67" s="84"/>
     </row>
-    <row r="68" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="B68" s="116"/>
+      <c r="B68" s="159"/>
       <c r="C68" s="31"/>
       <c r="D68" s="76"/>
       <c r="E68" s="79"/>
@@ -7894,9 +7894,9 @@
       <c r="I68" s="80"/>
       <c r="J68" s="80"/>
       <c r="K68" s="76"/>
-      <c r="L68" s="111"/>
-      <c r="M68" s="163"/>
-      <c r="P68" s="173"/>
+      <c r="L68" s="142"/>
+      <c r="M68" s="122"/>
+      <c r="P68" s="155"/>
       <c r="Q68" s="8" t="str">
         <f>IF(ISBLANK($R$39),"F3",$R$39)</f>
         <v>Dark lord</v>
@@ -7904,10 +7904,10 @@
       <c r="R68" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="S68" s="163"/>
+      <c r="S68" s="122"/>
       <c r="T68" s="76"/>
-      <c r="U68" s="163"/>
-      <c r="V68" s="166"/>
+      <c r="U68" s="122"/>
+      <c r="V68" s="106"/>
       <c r="W68" s="8" t="str">
         <f>IF(ISBLANK($R$68),"P2",$R$68)</f>
         <v>Frisouille</v>
@@ -7915,10 +7915,10 @@
       <c r="X68" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="Y68" s="163"/>
+      <c r="Y68" s="122"/>
       <c r="Z68" s="67"/>
-      <c r="AA68" s="163"/>
-      <c r="AB68" s="169"/>
+      <c r="AA68" s="122"/>
+      <c r="AB68" s="149"/>
       <c r="AC68" s="15" t="str">
         <f>IF(ISBLANK($X$64),"S2",$X$64)</f>
         <v>Liamsi</v>
@@ -7926,10 +7926,10 @@
       <c r="AD68" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="AE68" s="163"/>
+      <c r="AE68" s="122"/>
       <c r="AF68" s="77"/>
-      <c r="AG68" s="163"/>
-      <c r="AH68" s="166"/>
+      <c r="AG68" s="122"/>
+      <c r="AH68" s="106"/>
       <c r="AI68" s="8" t="str">
         <f>IF(ISBLANK($AD$71),"Y1",$AD$71)</f>
         <v>Aksl</v>
@@ -7937,14 +7937,14 @@
       <c r="AJ68" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AK68" s="163"/>
+      <c r="AK68" s="122"/>
       <c r="AL68" s="76"/>
       <c r="AM68" s="76"/>
       <c r="AN68" s="82"/>
       <c r="AO68" s="67"/>
       <c r="AP68" s="81"/>
       <c r="AQ68" s="76"/>
-      <c r="AR68" s="111"/>
+      <c r="AR68" s="142"/>
       <c r="AS68" s="76"/>
       <c r="AT68" s="76"/>
       <c r="AU68" s="76"/>
@@ -7953,14 +7953,14 @@
       <c r="AX68" s="76"/>
       <c r="AY68" s="76"/>
       <c r="AZ68" s="30"/>
-      <c r="BA68" s="113"/>
+      <c r="BA68" s="160"/>
       <c r="BE68" s="84"/>
     </row>
-    <row r="69" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="116"/>
+      <c r="B69" s="159"/>
       <c r="C69" s="31"/>
       <c r="D69" s="76"/>
       <c r="E69" s="79"/>
@@ -7970,9 +7970,9 @@
       <c r="I69" s="80"/>
       <c r="J69" s="80"/>
       <c r="K69" s="76"/>
-      <c r="L69" s="111"/>
-      <c r="M69" s="163"/>
-      <c r="P69" s="173"/>
+      <c r="L69" s="142"/>
+      <c r="M69" s="122"/>
+      <c r="P69" s="155"/>
       <c r="Q69" s="8" t="str">
         <f>IF(ISBLANK($R$28),"C4",$R$28)</f>
         <v>Frisouille</v>
@@ -7980,10 +7980,10 @@
       <c r="R69" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="S69" s="163"/>
+      <c r="S69" s="122"/>
       <c r="T69" s="76"/>
-      <c r="U69" s="163"/>
-      <c r="V69" s="166"/>
+      <c r="U69" s="122"/>
+      <c r="V69" s="106"/>
       <c r="W69" s="8" t="str">
         <f>IF(ISBLANK($X$31),"L3",$X$31)</f>
         <v>Supnyus</v>
@@ -7991,10 +7991,10 @@
       <c r="X69" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Y69" s="163"/>
+      <c r="Y69" s="122"/>
       <c r="Z69" s="67"/>
-      <c r="AA69" s="163"/>
-      <c r="AB69" s="169"/>
+      <c r="AA69" s="122"/>
+      <c r="AB69" s="149"/>
       <c r="AC69" s="8" t="str">
         <f>IF(ISBLANK($X$76),"V2",$X$76)</f>
         <v>Arthur</v>
@@ -8002,10 +8002,10 @@
       <c r="AD69" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="AE69" s="163"/>
+      <c r="AE69" s="122"/>
       <c r="AF69" s="77"/>
-      <c r="AG69" s="163"/>
-      <c r="AH69" s="166"/>
+      <c r="AG69" s="122"/>
+      <c r="AH69" s="106"/>
       <c r="AI69" s="8" t="str">
         <f>IF(ISBLANK($AD$64),"W2",$AD$64)</f>
         <v>Rouxblart</v>
@@ -8013,14 +8013,14 @@
       <c r="AJ69" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AK69" s="163"/>
+      <c r="AK69" s="122"/>
       <c r="AL69" s="76"/>
       <c r="AM69" s="76"/>
       <c r="AN69" s="82"/>
       <c r="AO69" s="67"/>
       <c r="AP69" s="81"/>
       <c r="AQ69" s="76"/>
-      <c r="AR69" s="111"/>
+      <c r="AR69" s="142"/>
       <c r="AS69" s="76"/>
       <c r="AT69" s="76"/>
       <c r="AU69" s="76"/>
@@ -8029,14 +8029,14 @@
       <c r="AX69" s="76"/>
       <c r="AY69" s="76"/>
       <c r="AZ69" s="30"/>
-      <c r="BA69" s="113"/>
+      <c r="BA69" s="160"/>
       <c r="BE69" s="84"/>
     </row>
-    <row r="70" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="B70" s="116"/>
+      <c r="B70" s="159"/>
       <c r="C70" s="31"/>
       <c r="D70" s="76"/>
       <c r="E70" s="79"/>
@@ -8046,9 +8046,9 @@
       <c r="I70" s="80"/>
       <c r="J70" s="80"/>
       <c r="K70" s="76"/>
-      <c r="L70" s="111"/>
-      <c r="M70" s="163"/>
-      <c r="P70" s="174"/>
+      <c r="L70" s="142"/>
+      <c r="M70" s="122"/>
+      <c r="P70" s="156"/>
       <c r="Q70" s="8" t="str">
         <f>IF(ISBLANK($R$44),"G4",$R$44)</f>
         <v>-</v>
@@ -8056,10 +8056,10 @@
       <c r="R70" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="S70" s="163"/>
+      <c r="S70" s="122"/>
       <c r="T70" s="76"/>
-      <c r="U70" s="163"/>
-      <c r="V70" s="171"/>
+      <c r="U70" s="122"/>
+      <c r="V70" s="107"/>
       <c r="W70" s="9" t="str">
         <f>IF(ISBLANK($X$20),"I4",$X$20)</f>
         <v>Kassys</v>
@@ -8067,10 +8067,10 @@
       <c r="X70" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Y70" s="163"/>
+      <c r="Y70" s="122"/>
       <c r="Z70" s="67"/>
-      <c r="AA70" s="163"/>
-      <c r="AB70" s="169"/>
+      <c r="AA70" s="122"/>
+      <c r="AB70" s="149"/>
       <c r="AC70" s="8" t="str">
         <f>IF(ISBLANK($AD$23),"N3",$AD$23)</f>
         <v>Joey</v>
@@ -8078,10 +8078,10 @@
       <c r="AD70" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="AE70" s="163"/>
+      <c r="AE70" s="122"/>
       <c r="AF70" s="77"/>
-      <c r="AG70" s="163"/>
-      <c r="AH70" s="166"/>
+      <c r="AG70" s="122"/>
+      <c r="AH70" s="106"/>
       <c r="AI70" s="8" t="str">
         <f>IF(ISBLANK($AJ$20),"WF4",$AJ$20)</f>
         <v>GoGu</v>
@@ -8089,14 +8089,14 @@
       <c r="AJ70" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK70" s="167"/>
+      <c r="AK70" s="123"/>
       <c r="AL70" s="76"/>
       <c r="AM70" s="76"/>
       <c r="AN70" s="82"/>
       <c r="AO70" s="67"/>
       <c r="AP70" s="81"/>
       <c r="AQ70" s="76"/>
-      <c r="AR70" s="111"/>
+      <c r="AR70" s="142"/>
       <c r="AS70" s="76"/>
       <c r="AT70" s="76"/>
       <c r="AU70" s="76"/>
@@ -8105,14 +8105,14 @@
       <c r="AX70" s="76"/>
       <c r="AY70" s="76"/>
       <c r="AZ70" s="30"/>
-      <c r="BA70" s="113"/>
+      <c r="BA70" s="160"/>
       <c r="BE70" s="84"/>
     </row>
-    <row r="71" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="B71" s="116"/>
+      <c r="B71" s="159"/>
       <c r="C71" s="31"/>
       <c r="D71" s="76"/>
       <c r="E71" s="79"/>
@@ -8122,9 +8122,9 @@
       <c r="I71" s="80"/>
       <c r="J71" s="80"/>
       <c r="K71" s="76"/>
-      <c r="L71" s="111"/>
-      <c r="M71" s="163"/>
-      <c r="P71" s="172" t="s">
+      <c r="L71" s="142"/>
+      <c r="M71" s="122"/>
+      <c r="P71" s="154" t="s">
         <v>168</v>
       </c>
       <c r="Q71" s="7" t="str">
@@ -8134,10 +8134,10 @@
       <c r="R71" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="S71" s="163"/>
+      <c r="S71" s="122"/>
       <c r="T71" s="76"/>
-      <c r="U71" s="163"/>
-      <c r="V71" s="165" t="s">
+      <c r="U71" s="122"/>
+      <c r="V71" s="105" t="s">
         <v>169</v>
       </c>
       <c r="W71" s="7" t="str">
@@ -8147,10 +8147,10 @@
       <c r="X71" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Y71" s="163"/>
+      <c r="Y71" s="122"/>
       <c r="Z71" s="76"/>
-      <c r="AA71" s="163"/>
-      <c r="AB71" s="168" t="s">
+      <c r="AA71" s="122"/>
+      <c r="AB71" s="108" t="s">
         <v>170</v>
       </c>
       <c r="AC71" s="14" t="str">
@@ -8160,20 +8160,20 @@
       <c r="AD71" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="AE71" s="163"/>
+      <c r="AE71" s="122"/>
       <c r="AF71" s="77"/>
-      <c r="AG71" s="147"/>
-      <c r="AH71" s="148"/>
-      <c r="AI71" s="148"/>
-      <c r="AJ71" s="148"/>
-      <c r="AK71" s="164"/>
+      <c r="AG71" s="118"/>
+      <c r="AH71" s="119"/>
+      <c r="AI71" s="119"/>
+      <c r="AJ71" s="119"/>
+      <c r="AK71" s="120"/>
       <c r="AL71" s="76"/>
       <c r="AM71" s="76"/>
       <c r="AN71" s="76"/>
       <c r="AO71" s="76"/>
       <c r="AP71" s="76"/>
       <c r="AQ71" s="76"/>
-      <c r="AR71" s="111"/>
+      <c r="AR71" s="142"/>
       <c r="AS71" s="76"/>
       <c r="AT71" s="76"/>
       <c r="AU71" s="76"/>
@@ -8182,14 +8182,14 @@
       <c r="AX71" s="76"/>
       <c r="AY71" s="76"/>
       <c r="AZ71" s="30"/>
-      <c r="BA71" s="113"/>
+      <c r="BA71" s="160"/>
       <c r="BE71" s="84"/>
     </row>
-    <row r="72" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="B72" s="116"/>
+      <c r="B72" s="159"/>
       <c r="C72" s="31"/>
       <c r="D72" s="76"/>
       <c r="E72" s="79"/>
@@ -8199,9 +8199,9 @@
       <c r="I72" s="80"/>
       <c r="J72" s="80"/>
       <c r="K72" s="76"/>
-      <c r="L72" s="111"/>
-      <c r="M72" s="163"/>
-      <c r="P72" s="173"/>
+      <c r="L72" s="142"/>
+      <c r="M72" s="122"/>
+      <c r="P72" s="155"/>
       <c r="Q72" s="8" t="str">
         <f>IF(ISBLANK($R$43),"G3",$R$43)</f>
         <v>Squid Game</v>
@@ -8209,10 +8209,10 @@
       <c r="R72" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="S72" s="163"/>
+      <c r="S72" s="122"/>
       <c r="T72" s="76"/>
-      <c r="U72" s="163"/>
-      <c r="V72" s="166"/>
+      <c r="U72" s="122"/>
+      <c r="V72" s="106"/>
       <c r="W72" s="8" t="str">
         <f>IF(ISBLANK($R$76),"R2",$R$76)</f>
         <v>Woople</v>
@@ -8220,10 +8220,10 @@
       <c r="X72" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Y72" s="163"/>
+      <c r="Y72" s="122"/>
       <c r="Z72" s="76"/>
-      <c r="AA72" s="163"/>
-      <c r="AB72" s="169"/>
+      <c r="AA72" s="122"/>
+      <c r="AB72" s="149"/>
       <c r="AC72" s="15" t="str">
         <f>IF(ISBLANK($X$75),"V1",$X$75)</f>
         <v>Charasime</v>
@@ -8231,7 +8231,7 @@
       <c r="AD72" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="AE72" s="163"/>
+      <c r="AE72" s="122"/>
       <c r="AF72" s="77"/>
       <c r="AG72" s="76"/>
       <c r="AH72" s="82"/>
@@ -8244,7 +8244,7 @@
       <c r="AO72" s="76"/>
       <c r="AP72" s="76"/>
       <c r="AQ72" s="76"/>
-      <c r="AR72" s="111"/>
+      <c r="AR72" s="142"/>
       <c r="AS72" s="76"/>
       <c r="AT72" s="76"/>
       <c r="AU72" s="76"/>
@@ -8253,14 +8253,14 @@
       <c r="AX72" s="76"/>
       <c r="AY72" s="76"/>
       <c r="AZ72" s="30"/>
-      <c r="BA72" s="113"/>
+      <c r="BA72" s="160"/>
       <c r="BE72" s="84"/>
     </row>
-    <row r="73" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="B73" s="116"/>
+      <c r="B73" s="159"/>
       <c r="C73" s="31"/>
       <c r="D73" s="76"/>
       <c r="E73" s="79"/>
@@ -8270,9 +8270,9 @@
       <c r="I73" s="80"/>
       <c r="J73" s="80"/>
       <c r="K73" s="76"/>
-      <c r="L73" s="111"/>
-      <c r="M73" s="163"/>
-      <c r="P73" s="173"/>
+      <c r="L73" s="142"/>
+      <c r="M73" s="122"/>
+      <c r="P73" s="155"/>
       <c r="Q73" s="8" t="str">
         <f>IF(ISBLANK($R$32),"D4",$R$32)</f>
         <v>Liamsi</v>
@@ -8280,10 +8280,10 @@
       <c r="R73" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="S73" s="163"/>
+      <c r="S73" s="122"/>
       <c r="T73" s="76"/>
-      <c r="U73" s="163"/>
-      <c r="V73" s="166"/>
+      <c r="U73" s="122"/>
+      <c r="V73" s="106"/>
       <c r="W73" s="8" t="str">
         <f>IF(ISBLANK($X$23),"J3",$X$23)</f>
         <v>Xols</v>
@@ -8291,10 +8291,10 @@
       <c r="X73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Y73" s="163"/>
+      <c r="Y73" s="122"/>
       <c r="Z73" s="76"/>
-      <c r="AA73" s="163"/>
-      <c r="AB73" s="169"/>
+      <c r="AA73" s="122"/>
+      <c r="AB73" s="149"/>
       <c r="AC73" s="8" t="str">
         <f>IF(ISBLANK($AD$20),"M4",$AD$20)</f>
         <v>Voltar</v>
@@ -8302,7 +8302,7 @@
       <c r="AD73" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="AE73" s="163"/>
+      <c r="AE73" s="122"/>
       <c r="AF73" s="77"/>
       <c r="AG73" s="76"/>
       <c r="AH73" s="82"/>
@@ -8315,7 +8315,7 @@
       <c r="AO73" s="76"/>
       <c r="AP73" s="76"/>
       <c r="AQ73" s="76"/>
-      <c r="AR73" s="111"/>
+      <c r="AR73" s="142"/>
       <c r="AS73" s="76"/>
       <c r="AT73" s="76"/>
       <c r="AU73" s="76"/>
@@ -8324,14 +8324,14 @@
       <c r="AX73" s="76"/>
       <c r="AY73" s="76"/>
       <c r="AZ73" s="30"/>
-      <c r="BA73" s="113"/>
+      <c r="BA73" s="160"/>
       <c r="BE73" s="84"/>
     </row>
-    <row r="74" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="B74" s="116"/>
+      <c r="B74" s="159"/>
       <c r="C74" s="31"/>
       <c r="D74" s="76"/>
       <c r="E74" s="79"/>
@@ -8341,9 +8341,9 @@
       <c r="I74" s="80"/>
       <c r="J74" s="80"/>
       <c r="K74" s="76"/>
-      <c r="L74" s="111"/>
-      <c r="M74" s="163"/>
-      <c r="P74" s="174"/>
+      <c r="L74" s="142"/>
+      <c r="M74" s="122"/>
+      <c r="P74" s="156"/>
       <c r="Q74" s="8" t="str">
         <f>IF(ISBLANK($R$48),"H4",$R$48)</f>
         <v>-</v>
@@ -8351,10 +8351,10 @@
       <c r="R74" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="S74" s="163"/>
+      <c r="S74" s="122"/>
       <c r="T74" s="76"/>
-      <c r="U74" s="163"/>
-      <c r="V74" s="171"/>
+      <c r="U74" s="122"/>
+      <c r="V74" s="107"/>
       <c r="W74" s="9" t="str">
         <f>IF(ISBLANK($X$28),"K4",$X$28)</f>
         <v>Limule</v>
@@ -8362,10 +8362,10 @@
       <c r="X74" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Y74" s="163"/>
+      <c r="Y74" s="122"/>
       <c r="Z74" s="76"/>
-      <c r="AA74" s="163"/>
-      <c r="AB74" s="169"/>
+      <c r="AA74" s="122"/>
+      <c r="AB74" s="149"/>
       <c r="AC74" s="8" t="str">
         <f>IF(ISBLANK($AD$24),"N4",$AD$24)</f>
         <v>Aksl</v>
@@ -8373,7 +8373,7 @@
       <c r="AD74" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="AE74" s="163"/>
+      <c r="AE74" s="122"/>
       <c r="AF74" s="77"/>
       <c r="AG74" s="76"/>
       <c r="AH74" s="82"/>
@@ -8386,7 +8386,7 @@
       <c r="AO74" s="76"/>
       <c r="AP74" s="76"/>
       <c r="AQ74" s="76"/>
-      <c r="AR74" s="111"/>
+      <c r="AR74" s="142"/>
       <c r="AS74" s="76"/>
       <c r="AT74" s="76"/>
       <c r="AU74" s="76"/>
@@ -8395,14 +8395,14 @@
       <c r="AX74" s="76"/>
       <c r="AY74" s="76"/>
       <c r="AZ74" s="30"/>
-      <c r="BA74" s="113"/>
+      <c r="BA74" s="160"/>
       <c r="BE74" s="84"/>
     </row>
-    <row r="75" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="B75" s="116"/>
+      <c r="B75" s="159"/>
       <c r="C75" s="31"/>
       <c r="D75" s="76"/>
       <c r="E75" s="79"/>
@@ -8412,9 +8412,9 @@
       <c r="I75" s="80"/>
       <c r="J75" s="80"/>
       <c r="K75" s="76"/>
-      <c r="L75" s="111"/>
-      <c r="M75" s="163"/>
-      <c r="P75" s="172" t="s">
+      <c r="L75" s="142"/>
+      <c r="M75" s="122"/>
+      <c r="P75" s="154" t="s">
         <v>175</v>
       </c>
       <c r="Q75" s="7" t="str">
@@ -8424,10 +8424,10 @@
       <c r="R75" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="S75" s="163"/>
+      <c r="S75" s="122"/>
       <c r="T75" s="76"/>
-      <c r="U75" s="163"/>
-      <c r="V75" s="165" t="s">
+      <c r="U75" s="122"/>
+      <c r="V75" s="105" t="s">
         <v>176</v>
       </c>
       <c r="W75" s="7" t="str">
@@ -8437,13 +8437,13 @@
       <c r="X75" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Y75" s="163"/>
+      <c r="Y75" s="122"/>
       <c r="Z75" s="76"/>
-      <c r="AA75" s="147"/>
-      <c r="AB75" s="148"/>
-      <c r="AC75" s="148"/>
-      <c r="AD75" s="148"/>
-      <c r="AE75" s="164"/>
+      <c r="AA75" s="118"/>
+      <c r="AB75" s="119"/>
+      <c r="AC75" s="119"/>
+      <c r="AD75" s="119"/>
+      <c r="AE75" s="120"/>
       <c r="AF75" s="77"/>
       <c r="AG75" s="76"/>
       <c r="AH75" s="82"/>
@@ -8456,7 +8456,7 @@
       <c r="AO75" s="76"/>
       <c r="AP75" s="76"/>
       <c r="AQ75" s="76"/>
-      <c r="AR75" s="111"/>
+      <c r="AR75" s="142"/>
       <c r="AS75" s="76"/>
       <c r="AT75" s="76"/>
       <c r="AU75" s="76"/>
@@ -8465,14 +8465,14 @@
       <c r="AX75" s="76"/>
       <c r="AY75" s="76"/>
       <c r="AZ75" s="30"/>
-      <c r="BA75" s="113"/>
+      <c r="BA75" s="160"/>
       <c r="BE75" s="84"/>
     </row>
-    <row r="76" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="116"/>
+      <c r="B76" s="159"/>
       <c r="C76" s="31"/>
       <c r="D76" s="76"/>
       <c r="E76" s="79"/>
@@ -8482,9 +8482,9 @@
       <c r="I76" s="80"/>
       <c r="J76" s="80"/>
       <c r="K76" s="76"/>
-      <c r="L76" s="111"/>
-      <c r="M76" s="163"/>
-      <c r="P76" s="173"/>
+      <c r="L76" s="142"/>
+      <c r="M76" s="122"/>
+      <c r="P76" s="155"/>
       <c r="Q76" s="8" t="str">
         <f>IF(ISBLANK($R$47),"H3",$R$47)</f>
         <v>GutorLaFripouille</v>
@@ -8492,10 +8492,10 @@
       <c r="R76" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="S76" s="163"/>
+      <c r="S76" s="122"/>
       <c r="T76" s="76"/>
-      <c r="U76" s="163"/>
-      <c r="V76" s="166"/>
+      <c r="U76" s="122"/>
+      <c r="V76" s="106"/>
       <c r="W76" s="8" t="str">
         <f>IF(ISBLANK($R$64),"O2",$R$64)</f>
         <v>Arthur</v>
@@ -8503,7 +8503,7 @@
       <c r="X76" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Y76" s="163"/>
+      <c r="Y76" s="122"/>
       <c r="Z76" s="76"/>
       <c r="AA76" s="76"/>
       <c r="AB76" s="76"/>
@@ -8522,7 +8522,7 @@
       <c r="AO76" s="76"/>
       <c r="AP76" s="76"/>
       <c r="AQ76" s="76"/>
-      <c r="AR76" s="111"/>
+      <c r="AR76" s="142"/>
       <c r="AS76" s="76"/>
       <c r="AT76" s="76"/>
       <c r="AU76" s="76"/>
@@ -8531,14 +8531,14 @@
       <c r="AX76" s="76"/>
       <c r="AY76" s="76"/>
       <c r="AZ76" s="30"/>
-      <c r="BA76" s="113"/>
+      <c r="BA76" s="160"/>
       <c r="BE76" s="84"/>
     </row>
-    <row r="77" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="B77" s="116"/>
+      <c r="B77" s="159"/>
       <c r="C77" s="31"/>
       <c r="D77" s="76"/>
       <c r="E77" s="79"/>
@@ -8548,9 +8548,9 @@
       <c r="I77" s="80"/>
       <c r="J77" s="80"/>
       <c r="K77" s="76"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="163"/>
-      <c r="P77" s="173"/>
+      <c r="L77" s="142"/>
+      <c r="M77" s="122"/>
+      <c r="P77" s="155"/>
       <c r="Q77" s="8" t="str">
         <f>IF(ISBLANK($R$20),"A4",$R$20)</f>
         <v>Groluche le louche</v>
@@ -8558,10 +8558,10 @@
       <c r="R77" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="S77" s="163"/>
+      <c r="S77" s="122"/>
       <c r="T77" s="76"/>
-      <c r="U77" s="163"/>
-      <c r="V77" s="166"/>
+      <c r="U77" s="122"/>
+      <c r="V77" s="106"/>
       <c r="W77" s="8" t="str">
         <f>IF(ISBLANK($X$27),"K3",$X$27)</f>
         <v>Charasime</v>
@@ -8569,7 +8569,7 @@
       <c r="X77" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Y77" s="163"/>
+      <c r="Y77" s="122"/>
       <c r="Z77" s="76"/>
       <c r="AA77" s="76"/>
       <c r="AB77" s="76"/>
@@ -8588,7 +8588,7 @@
       <c r="AO77" s="76"/>
       <c r="AP77" s="76"/>
       <c r="AQ77" s="76"/>
-      <c r="AR77" s="111"/>
+      <c r="AR77" s="142"/>
       <c r="AS77" s="76"/>
       <c r="AT77" s="76"/>
       <c r="AU77" s="76"/>
@@ -8597,14 +8597,14 @@
       <c r="AX77" s="76"/>
       <c r="AY77" s="76"/>
       <c r="AZ77" s="30"/>
-      <c r="BA77" s="113"/>
+      <c r="BA77" s="160"/>
       <c r="BE77" s="84"/>
     </row>
-    <row r="78" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="B78" s="116"/>
+      <c r="B78" s="159"/>
       <c r="C78" s="31"/>
       <c r="D78" s="76"/>
       <c r="E78" s="79"/>
@@ -8614,9 +8614,9 @@
       <c r="I78" s="80"/>
       <c r="J78" s="80"/>
       <c r="K78" s="76"/>
-      <c r="L78" s="111"/>
-      <c r="M78" s="167"/>
-      <c r="P78" s="174"/>
+      <c r="L78" s="142"/>
+      <c r="M78" s="123"/>
+      <c r="P78" s="156"/>
       <c r="Q78" s="8" t="str">
         <f>IF(ISBLANK($R$36),"E4",$R$36)</f>
         <v>Stern</v>
@@ -8624,9 +8624,9 @@
       <c r="R78" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="S78" s="167"/>
-      <c r="U78" s="167"/>
-      <c r="V78" s="171"/>
+      <c r="S78" s="123"/>
+      <c r="U78" s="123"/>
+      <c r="V78" s="107"/>
       <c r="W78" s="9" t="str">
         <f>IF(ISBLANK($X$24),"J4",$X$24)</f>
         <v>Znium</v>
@@ -8634,7 +8634,7 @@
       <c r="X78" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Y78" s="167"/>
+      <c r="Y78" s="123"/>
       <c r="Z78" s="76"/>
       <c r="AA78" s="76"/>
       <c r="AB78" s="76"/>
@@ -8653,7 +8653,7 @@
       <c r="AO78" s="76"/>
       <c r="AP78" s="76"/>
       <c r="AQ78" s="76"/>
-      <c r="AR78" s="111"/>
+      <c r="AR78" s="142"/>
       <c r="AS78" s="76"/>
       <c r="AT78" s="76"/>
       <c r="AU78" s="76"/>
@@ -8662,14 +8662,14 @@
       <c r="AX78" s="76"/>
       <c r="AY78" s="76"/>
       <c r="AZ78" s="30"/>
-      <c r="BA78" s="113"/>
+      <c r="BA78" s="160"/>
       <c r="BE78" s="84"/>
     </row>
-    <row r="79" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="116"/>
+      <c r="B79" s="159"/>
       <c r="C79" s="31"/>
       <c r="D79" s="76"/>
       <c r="E79" s="79"/>
@@ -8679,20 +8679,20 @@
       <c r="I79" s="80"/>
       <c r="J79" s="80"/>
       <c r="K79" s="76"/>
-      <c r="L79" s="111"/>
-      <c r="M79" s="148"/>
-      <c r="N79" s="148"/>
-      <c r="O79" s="148"/>
-      <c r="P79" s="148"/>
-      <c r="Q79" s="148"/>
-      <c r="R79" s="148"/>
-      <c r="S79" s="164"/>
+      <c r="L79" s="142"/>
+      <c r="M79" s="119"/>
+      <c r="N79" s="119"/>
+      <c r="O79" s="119"/>
+      <c r="P79" s="119"/>
+      <c r="Q79" s="119"/>
+      <c r="R79" s="119"/>
+      <c r="S79" s="120"/>
       <c r="T79" s="76"/>
-      <c r="U79" s="147"/>
-      <c r="V79" s="148"/>
-      <c r="W79" s="148"/>
-      <c r="X79" s="148"/>
-      <c r="Y79" s="164"/>
+      <c r="U79" s="118"/>
+      <c r="V79" s="119"/>
+      <c r="W79" s="119"/>
+      <c r="X79" s="119"/>
+      <c r="Y79" s="120"/>
       <c r="Z79" s="76"/>
       <c r="AA79" s="76"/>
       <c r="AB79" s="76"/>
@@ -8711,7 +8711,7 @@
       <c r="AO79" s="76"/>
       <c r="AP79" s="76"/>
       <c r="AQ79" s="76"/>
-      <c r="AR79" s="111"/>
+      <c r="AR79" s="142"/>
       <c r="AS79" s="76"/>
       <c r="AT79" s="76"/>
       <c r="AU79" s="76"/>
@@ -8720,14 +8720,14 @@
       <c r="AX79" s="76"/>
       <c r="AY79" s="76"/>
       <c r="AZ79" s="30"/>
-      <c r="BA79" s="113"/>
+      <c r="BA79" s="160"/>
       <c r="BE79" s="84"/>
     </row>
-    <row r="80" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="B80" s="116"/>
+      <c r="B80" s="159"/>
       <c r="C80" s="31"/>
       <c r="D80" s="76"/>
       <c r="E80" s="79"/>
@@ -8737,7 +8737,7 @@
       <c r="I80" s="80"/>
       <c r="J80" s="80"/>
       <c r="K80" s="76"/>
-      <c r="L80" s="111"/>
+      <c r="L80" s="142"/>
       <c r="M80" s="76"/>
       <c r="N80" s="76"/>
       <c r="O80" s="76"/>
@@ -8769,7 +8769,7 @@
       <c r="AO80" s="76"/>
       <c r="AP80" s="76"/>
       <c r="AQ80" s="76"/>
-      <c r="AR80" s="111"/>
+      <c r="AR80" s="142"/>
       <c r="AS80" s="76"/>
       <c r="AT80" s="76"/>
       <c r="AU80" s="76"/>
@@ -8778,12 +8778,12 @@
       <c r="AX80" s="76"/>
       <c r="AY80" s="76"/>
       <c r="AZ80" s="30"/>
-      <c r="BA80" s="113"/>
+      <c r="BA80" s="160"/>
       <c r="BE80" s="84"/>
     </row>
-    <row r="81" spans="1:57" s="66" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:57" s="66" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="58"/>
-      <c r="B81" s="116"/>
+      <c r="B81" s="159"/>
       <c r="C81" s="33"/>
       <c r="D81" s="34"/>
       <c r="E81" s="35"/>
@@ -8793,7 +8793,7 @@
       <c r="I81" s="44"/>
       <c r="J81" s="44"/>
       <c r="K81" s="34"/>
-      <c r="L81" s="112"/>
+      <c r="L81" s="143"/>
       <c r="M81" s="34"/>
       <c r="N81" s="34"/>
       <c r="O81" s="34"/>
@@ -8825,7 +8825,7 @@
       <c r="AO81" s="34"/>
       <c r="AP81" s="34"/>
       <c r="AQ81" s="34"/>
-      <c r="AR81" s="112"/>
+      <c r="AR81" s="143"/>
       <c r="AS81" s="34"/>
       <c r="AT81" s="34"/>
       <c r="AU81" s="34"/>
@@ -8834,178 +8834,231 @@
       <c r="AX81" s="34"/>
       <c r="AY81" s="34"/>
       <c r="AZ81" s="36"/>
-      <c r="BA81" s="113"/>
+      <c r="BA81" s="160"/>
       <c r="BE81" s="84"/>
     </row>
-    <row r="82" spans="1:57" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:57" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="78"/>
     </row>
-    <row r="83" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="78"/>
     </row>
-    <row r="84" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="78"/>
     </row>
-    <row r="85" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="78"/>
     </row>
-    <row r="86" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="78"/>
     </row>
-    <row r="87" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="78"/>
     </row>
-    <row r="88" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="78"/>
     </row>
-    <row r="89" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="78"/>
     </row>
-    <row r="90" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="78"/>
     </row>
-    <row r="91" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="78"/>
     </row>
-    <row r="92" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="78"/>
     </row>
-    <row r="93" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="78"/>
     </row>
-    <row r="94" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="78"/>
     </row>
-    <row r="95" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="78"/>
     </row>
-    <row r="96" spans="1:57" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:57" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="78"/>
     </row>
-    <row r="97" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="78"/>
     </row>
-    <row r="98" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="78"/>
     </row>
-    <row r="99" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="78"/>
     </row>
-    <row r="100" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="78"/>
     </row>
-    <row r="101" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="78"/>
     </row>
-    <row r="102" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="78"/>
     </row>
-    <row r="103" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="78"/>
     </row>
-    <row r="104" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="78"/>
     </row>
-    <row r="105" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="78"/>
     </row>
-    <row r="106" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="78"/>
     </row>
-    <row r="107" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="78"/>
     </row>
-    <row r="108" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="78"/>
     </row>
-    <row r="109" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="78"/>
     </row>
-    <row r="110" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="78"/>
     </row>
-    <row r="111" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="78"/>
     </row>
-    <row r="112" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="78"/>
     </row>
-    <row r="113" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="78"/>
     </row>
-    <row r="114" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="78"/>
     </row>
-    <row r="115" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="78"/>
     </row>
-    <row r="116" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="78"/>
     </row>
-    <row r="117" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="78"/>
     </row>
-    <row r="118" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="78"/>
     </row>
-    <row r="119" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="78"/>
     </row>
-    <row r="120" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="78"/>
     </row>
-    <row r="121" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="78"/>
     </row>
-    <row r="122" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="78"/>
     </row>
-    <row r="123" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="78"/>
     </row>
-    <row r="124" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="78"/>
     </row>
-    <row r="125" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:1" ht="24.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" spans="1:1" ht="24.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="1:1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" spans="1:1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="83" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="P37:P40"/>
-    <mergeCell ref="P33:P36"/>
-    <mergeCell ref="P41:P44"/>
-    <mergeCell ref="U11:Y13"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="AA11:AE13"/>
-    <mergeCell ref="S15:S48"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="U15:U32"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="AR2:AR81"/>
+    <mergeCell ref="BA2:BA81"/>
+    <mergeCell ref="AA75:AE75"/>
+    <mergeCell ref="AH67:AH70"/>
+    <mergeCell ref="AG61:AG70"/>
+    <mergeCell ref="AK61:AK70"/>
+    <mergeCell ref="AG71:AK71"/>
+    <mergeCell ref="AH63:AH66"/>
+    <mergeCell ref="AI61:AJ61"/>
+    <mergeCell ref="AB63:AB66"/>
+    <mergeCell ref="AB67:AB70"/>
+    <mergeCell ref="AB71:AB74"/>
+    <mergeCell ref="AA61:AA74"/>
+    <mergeCell ref="B1:XFD1"/>
+    <mergeCell ref="B82:XFD1048576"/>
+    <mergeCell ref="B2:B81"/>
+    <mergeCell ref="M52:AQ54"/>
+    <mergeCell ref="M5:AQ7"/>
+    <mergeCell ref="AU17:AU20"/>
+    <mergeCell ref="AU31:AU34"/>
+    <mergeCell ref="AS5:AZ7"/>
+    <mergeCell ref="AM67:AQ67"/>
+    <mergeCell ref="AT11:AY13"/>
+    <mergeCell ref="AT25:AY27"/>
+    <mergeCell ref="AM57:AQ59"/>
+    <mergeCell ref="AM60:AQ60"/>
+    <mergeCell ref="AO61:AP61"/>
+    <mergeCell ref="AN63:AN66"/>
+    <mergeCell ref="AE61:AE74"/>
+    <mergeCell ref="M79:S79"/>
+    <mergeCell ref="V75:V78"/>
+    <mergeCell ref="U61:U78"/>
+    <mergeCell ref="Y61:Y78"/>
+    <mergeCell ref="U79:Y79"/>
+    <mergeCell ref="P75:P78"/>
+    <mergeCell ref="M61:M78"/>
+    <mergeCell ref="S61:S78"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="V71:V74"/>
+    <mergeCell ref="V63:V66"/>
+    <mergeCell ref="P63:P66"/>
+    <mergeCell ref="P67:P70"/>
+    <mergeCell ref="AA60:AE60"/>
+    <mergeCell ref="V67:V70"/>
+    <mergeCell ref="AA57:AE59"/>
+    <mergeCell ref="AC61:AD61"/>
+    <mergeCell ref="M60:S60"/>
+    <mergeCell ref="U60:Y60"/>
+    <mergeCell ref="U57:Y59"/>
+    <mergeCell ref="W61:X61"/>
+    <mergeCell ref="M57:S59"/>
+    <mergeCell ref="AG57:AK59"/>
+    <mergeCell ref="AG60:AK60"/>
+    <mergeCell ref="AG11:AK13"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AH17:AH20"/>
+    <mergeCell ref="AG21:AK21"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AK15:AK20"/>
+    <mergeCell ref="AG15:AG20"/>
     <mergeCell ref="C2:K6"/>
     <mergeCell ref="H13:J14"/>
     <mergeCell ref="D13:E14"/>
@@ -9022,16 +9075,12 @@
     <mergeCell ref="M11:S13"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="P21:P24"/>
-    <mergeCell ref="AG57:AK59"/>
-    <mergeCell ref="AG60:AK60"/>
-    <mergeCell ref="AG11:AK13"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AH17:AH20"/>
-    <mergeCell ref="AG21:AK21"/>
-    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AA11:AE13"/>
+    <mergeCell ref="S15:S48"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="U15:U32"/>
     <mergeCell ref="AB21:AB24"/>
-    <mergeCell ref="AK15:AK20"/>
-    <mergeCell ref="AG15:AG20"/>
     <mergeCell ref="V25:V28"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:Y32"/>
@@ -9042,60 +9091,11 @@
     <mergeCell ref="V29:V32"/>
     <mergeCell ref="V17:V20"/>
     <mergeCell ref="V21:V24"/>
-    <mergeCell ref="AA60:AE60"/>
-    <mergeCell ref="V67:V70"/>
-    <mergeCell ref="AA57:AE59"/>
-    <mergeCell ref="AC61:AD61"/>
-    <mergeCell ref="M60:S60"/>
-    <mergeCell ref="U60:Y60"/>
-    <mergeCell ref="U57:Y59"/>
-    <mergeCell ref="W61:X61"/>
-    <mergeCell ref="M57:S59"/>
-    <mergeCell ref="M79:S79"/>
-    <mergeCell ref="V75:V78"/>
-    <mergeCell ref="U61:U78"/>
-    <mergeCell ref="Y61:Y78"/>
-    <mergeCell ref="U79:Y79"/>
-    <mergeCell ref="P75:P78"/>
-    <mergeCell ref="M61:M78"/>
-    <mergeCell ref="S61:S78"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="V71:V74"/>
-    <mergeCell ref="V63:V66"/>
-    <mergeCell ref="P63:P66"/>
-    <mergeCell ref="P67:P70"/>
-    <mergeCell ref="B1:XFD1"/>
-    <mergeCell ref="B82:XFD1048576"/>
-    <mergeCell ref="B2:B81"/>
-    <mergeCell ref="M52:AQ54"/>
-    <mergeCell ref="M5:AQ7"/>
-    <mergeCell ref="AU17:AU20"/>
-    <mergeCell ref="AU31:AU34"/>
-    <mergeCell ref="AS5:AZ7"/>
-    <mergeCell ref="AM67:AQ67"/>
-    <mergeCell ref="AT11:AY13"/>
-    <mergeCell ref="AT25:AY27"/>
-    <mergeCell ref="AM57:AQ59"/>
-    <mergeCell ref="AM60:AQ60"/>
-    <mergeCell ref="AO61:AP61"/>
-    <mergeCell ref="AN63:AN66"/>
-    <mergeCell ref="AE61:AE74"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="AR2:AR81"/>
-    <mergeCell ref="BA2:BA81"/>
-    <mergeCell ref="AA75:AE75"/>
-    <mergeCell ref="AH67:AH70"/>
-    <mergeCell ref="AG61:AG70"/>
-    <mergeCell ref="AK61:AK70"/>
-    <mergeCell ref="AG71:AK71"/>
-    <mergeCell ref="AH63:AH66"/>
-    <mergeCell ref="AI61:AJ61"/>
-    <mergeCell ref="AB63:AB66"/>
-    <mergeCell ref="AB67:AB70"/>
-    <mergeCell ref="AB71:AB74"/>
-    <mergeCell ref="AA61:AA74"/>
+    <mergeCell ref="P37:P40"/>
+    <mergeCell ref="P33:P36"/>
+    <mergeCell ref="P41:P44"/>
+    <mergeCell ref="U11:Y13"/>
+    <mergeCell ref="U14:Y14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="Q63">
